--- a/03.test/01_成果物(20250926納品分)/F4101_機能階層図/F4101_DA_機能階層図.xlsx
+++ b/03.test/01_成果物(20250926納品分)/F4101_機能階層図/F4101_DA_機能階層図.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\svnnk\doc\20_外部設計\01_成果物\F4101_機能階層図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E5A13-37C2-4CB4-8B0E-2492000F9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="9" r:id="rId1"/>
@@ -28,32 +27,32 @@
     <sheet name="12.共通" sheetId="57" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.内部受付'!$A$1:$BJ$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'10.他システム連動'!$A$1:$BJ$332</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'11.マスタ管理'!$A$1:$BJ$203</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'12.共通'!$A$1:$BJ$144</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.財務会計'!$A$1:$BJ$284</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'3.管理会計'!$A$1:$BJ$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'4.税務'!$A$1:$BJ$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'5.債権管理'!$A$1:$BJ$227</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'6.債務管理'!$A$1:$BJ$189</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'7.棚卸資産管理'!$A$1:$BJ$96</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'8.部門提供'!$A$1:$BJ$109</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'9.共計'!$A$1:$BJ$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$BJ$60</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'1.内部受付'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'10.他システム連動'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">'11.マスタ管理'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">'12.共通'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2.財務会計'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'3.管理会計'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'4.税務'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'5.債権管理'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'6.債務管理'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'7.棚卸資産管理'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'8.部門提供'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'9.共計'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">変更履歴!$1:$5</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'1.内部受付'!$A$1:$BJ$32</definedName>
+    <definedName localSheetId="10" name="_xlnm.Print_Area">'10.他システム連動'!$A$1:$BJ$332</definedName>
+    <definedName localSheetId="11" name="_xlnm.Print_Area">'11.マスタ管理'!$A$1:$BJ$203</definedName>
+    <definedName localSheetId="12" name="_xlnm.Print_Area">'12.共通'!$A$1:$BJ$144</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'2.財務会計'!$A$1:$BJ$284</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'3.管理会計'!$A$1:$BJ$69</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Area">'4.税務'!$A$1:$BJ$20</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Area">'5.債権管理'!$A$1:$BJ$227</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Area">'6.債務管理'!$A$1:$BJ$189</definedName>
+    <definedName localSheetId="7" name="_xlnm.Print_Area">'7.棚卸資産管理'!$A$1:$BJ$96</definedName>
+    <definedName localSheetId="8" name="_xlnm.Print_Area">'8.部門提供'!$A$1:$BJ$109</definedName>
+    <definedName localSheetId="9" name="_xlnm.Print_Area">'9.共計'!$A$1:$BJ$101</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">変更履歴!$A$1:$BJ$60</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Titles">'1.内部受付'!$1:$6</definedName>
+    <definedName localSheetId="10" name="_xlnm.Print_Titles">'10.他システム連動'!$1:$6</definedName>
+    <definedName localSheetId="11" name="_xlnm.Print_Titles">'11.マスタ管理'!$1:$6</definedName>
+    <definedName localSheetId="12" name="_xlnm.Print_Titles">'12.共通'!$1:$6</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Titles">'2.財務会計'!$1:$6</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Titles">'3.管理会計'!$1:$6</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Titles">'4.税務'!$1:$6</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Titles">'5.債権管理'!$1:$6</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Titles">'6.債務管理'!$1:$6</definedName>
+    <definedName localSheetId="7" name="_xlnm.Print_Titles">'7.棚卸資産管理'!$1:$6</definedName>
+    <definedName localSheetId="8" name="_xlnm.Print_Titles">'8.部門提供'!$1:$6</definedName>
+    <definedName localSheetId="9" name="_xlnm.Print_Titles">'9.共計'!$1:$6</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">変更履歴!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -4925,8 +4924,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4958,7 +4957,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
@@ -4977,7 +4976,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="MS P ゴシック"/>
@@ -5002,6 +5001,13 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF4180C4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5129,11 +5135,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -5142,7 +5148,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -5150,10 +5156,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -5203,10 +5209,10 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -5225,7 +5231,7 @@
     <border>
       <left/>
       <right style="dotted">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -5235,7 +5241,7 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -5261,380 +5267,383 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="true" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" shrinkToFit="true" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" shrinkToFit="true" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" shrinkToFit="true" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" shrinkToFit="true" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" shrinkToFit="true" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" shrinkToFit="true" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{73D35C44-FEE1-40BC-82D3-233599617929}"/>
-    <cellStyle name="標準 2 2" xfId="2" xr:uid="{D48B0240-824C-4900-8C0E-49AF5AE8D5FC}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5647,120 +5656,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="5B9BD5"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4472C4"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5816,8 +5825,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -5839,8 +5848,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -5856,8 +5865,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5894,10 +5903,10 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults>
     <a:spDef>
       <a:spPr bwMode="auto">
         <a:xfrm>
@@ -5982,14 +5991,14 @@
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
+  </objectDefaults>
+  <extraClrSchemeLst/>
+  <extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
       <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
-  </a:extLst>
-</a:theme>
+  </extLst>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10940,7 +10949,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7AE7E9-B982-4E89-BD50-0DBE5644AE02}">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:CP514"/>
   <sheetViews>
@@ -10948,17 +10957,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16" width="2.109375" style="3"/>
-    <col min="17" max="17" width="2.109375" style="44"/>
-    <col min="18" max="30" width="2.109375" style="3"/>
-    <col min="31" max="31" width="2.109375" style="45"/>
-    <col min="32" max="32" width="2.109375" style="44"/>
-    <col min="33" max="45" width="2.109375" style="3"/>
-    <col min="46" max="46" width="2.109375" style="45"/>
-    <col min="47" max="16384" width="2.109375" style="3"/>
+    <col max="16" min="1" style="3" width="2.109375"/>
+    <col max="17" min="17" style="44" width="2.109375"/>
+    <col max="30" min="18" style="3" width="2.109375"/>
+    <col max="31" min="31" style="45" width="2.109375"/>
+    <col max="32" min="32" style="44" width="2.109375"/>
+    <col max="45" min="33" style="3" width="2.109375"/>
+    <col max="46" min="46" style="45" width="2.109375"/>
+    <col max="16384" min="47" style="3" width="2.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -11026,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:62" s="2" customFormat="true" ht="18" customHeight="true">
       <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
@@ -11098,7 +11107,7 @@
       <c r="BI2" s="74"/>
       <c r="BJ2" s="75"/>
     </row>
-    <row r="3" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true">
       <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
@@ -11170,7 +11179,7 @@
       <c r="BI3" s="74"/>
       <c r="BJ3" s="75"/>
     </row>
-    <row r="4" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true">
       <c r="A4" s="73" t="s">
         <v>8</v>
       </c>
@@ -11240,7 +11249,7 @@
       <c r="BI4" s="74"/>
       <c r="BJ4" s="75"/>
     </row>
-    <row r="5" spans="1:62" ht="9" customHeight="1">
+    <row r="5" spans="1:62" ht="9" customHeight="true">
       <c r="A5" s="22"/>
       <c r="Q5" s="3"/>
       <c r="AE5" s="3"/>
@@ -11248,7 +11257,7 @@
       <c r="AT5" s="3"/>
       <c r="BJ5" s="23"/>
     </row>
-    <row r="6" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true">
       <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
@@ -11320,7 +11329,7 @@
       <c r="BI6" s="74"/>
       <c r="BJ6" s="75"/>
     </row>
-    <row r="7" spans="1:62" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:62" s="1" customFormat="true" ht="20.25" customHeight="true">
       <c r="A7" s="20"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -11382,7 +11391,7 @@
       <c r="BI7" s="19"/>
       <c r="BJ7" s="21"/>
     </row>
-    <row r="8" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A8" s="29"/>
       <c r="D8" s="27" t="s">
         <v>18</v>
@@ -11432,7 +11441,7 @@
       <c r="AT8" s="32"/>
       <c r="BJ8" s="33"/>
     </row>
-    <row r="9" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A9" s="29"/>
       <c r="D9" s="84" t="s">
         <v>418</v>
@@ -11476,7 +11485,7 @@
       <c r="AT9" s="32"/>
       <c r="BJ9" s="33"/>
     </row>
-    <row r="10" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A10" s="29"/>
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
@@ -11522,7 +11531,7 @@
       <c r="AT10" s="32"/>
       <c r="BJ10" s="33"/>
     </row>
-    <row r="11" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A11" s="29"/>
       <c r="D11" s="1"/>
       <c r="Q11" s="31"/>
@@ -11533,7 +11542,7 @@
       <c r="AT11" s="32"/>
       <c r="BJ11" s="33"/>
     </row>
-    <row r="12" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A12" s="29"/>
       <c r="D12" s="1"/>
       <c r="Q12" s="31"/>
@@ -11558,7 +11567,7 @@
       <c r="AT12" s="32"/>
       <c r="BJ12" s="33"/>
     </row>
-    <row r="13" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A13" s="29"/>
       <c r="D13" s="1"/>
       <c r="Q13" s="31"/>
@@ -11581,7 +11590,7 @@
       <c r="AT13" s="32"/>
       <c r="BJ13" s="33"/>
     </row>
-    <row r="14" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A14" s="29"/>
       <c r="D14" s="1"/>
       <c r="Q14" s="31"/>
@@ -11603,7 +11612,7 @@
       <c r="AT14" s="32"/>
       <c r="BJ14" s="33"/>
     </row>
-    <row r="15" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A15" s="29"/>
       <c r="D15" s="1"/>
       <c r="Q15" s="31"/>
@@ -11614,7 +11623,7 @@
       <c r="AT15" s="32"/>
       <c r="BJ15" s="33"/>
     </row>
-    <row r="16" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A16" s="29"/>
       <c r="D16" s="1"/>
       <c r="Q16" s="31"/>
@@ -11639,7 +11648,7 @@
       <c r="AT16" s="32"/>
       <c r="BJ16" s="33"/>
     </row>
-    <row r="17" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A17" s="29"/>
       <c r="D17" s="1"/>
       <c r="Q17" s="31"/>
@@ -11662,7 +11671,7 @@
       <c r="AT17" s="32"/>
       <c r="BJ17" s="33"/>
     </row>
-    <row r="18" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A18" s="29"/>
       <c r="D18" s="1"/>
       <c r="Q18" s="31"/>
@@ -11684,7 +11693,7 @@
       <c r="AT18" s="32"/>
       <c r="BJ18" s="33"/>
     </row>
-    <row r="19" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A19" s="29"/>
       <c r="D19" s="1"/>
       <c r="Q19" s="31"/>
@@ -11695,7 +11704,7 @@
       <c r="AT19" s="32"/>
       <c r="BJ19" s="33"/>
     </row>
-    <row r="20" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A20" s="29"/>
       <c r="D20" s="1"/>
       <c r="Q20" s="31"/>
@@ -11720,7 +11729,7 @@
       <c r="AT20" s="32"/>
       <c r="BJ20" s="33"/>
     </row>
-    <row r="21" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A21" s="29"/>
       <c r="D21" s="1"/>
       <c r="Q21" s="31"/>
@@ -11743,7 +11752,7 @@
       <c r="AT21" s="32"/>
       <c r="BJ21" s="33"/>
     </row>
-    <row r="22" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A22" s="29"/>
       <c r="D22" s="1"/>
       <c r="Q22" s="31"/>
@@ -11765,7 +11774,7 @@
       <c r="AT22" s="32"/>
       <c r="BJ22" s="33"/>
     </row>
-    <row r="23" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A23" s="29"/>
       <c r="D23" s="1"/>
       <c r="Q23" s="31"/>
@@ -11776,7 +11785,7 @@
       <c r="AT23" s="32"/>
       <c r="BJ23" s="33"/>
     </row>
-    <row r="24" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A24" s="29"/>
       <c r="D24" s="1"/>
       <c r="Q24" s="31"/>
@@ -11801,7 +11810,7 @@
       <c r="AT24" s="32"/>
       <c r="BJ24" s="33"/>
     </row>
-    <row r="25" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A25" s="29"/>
       <c r="D25" s="1"/>
       <c r="Q25" s="31"/>
@@ -11824,7 +11833,7 @@
       <c r="AT25" s="32"/>
       <c r="BJ25" s="33"/>
     </row>
-    <row r="26" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A26" s="29"/>
       <c r="D26" s="1"/>
       <c r="Q26" s="31"/>
@@ -11846,7 +11855,7 @@
       <c r="AT26" s="32"/>
       <c r="BJ26" s="33"/>
     </row>
-    <row r="27" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A27" s="29"/>
       <c r="D27" s="1"/>
       <c r="Q27" s="31"/>
@@ -11857,7 +11866,7 @@
       <c r="AT27" s="32"/>
       <c r="BJ27" s="33"/>
     </row>
-    <row r="28" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A28" s="29"/>
       <c r="D28" s="1"/>
       <c r="Q28" s="31"/>
@@ -11882,7 +11891,7 @@
       <c r="AT28" s="32"/>
       <c r="BJ28" s="33"/>
     </row>
-    <row r="29" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A29" s="29"/>
       <c r="D29" s="1"/>
       <c r="I29" s="1"/>
@@ -11907,7 +11916,7 @@
       <c r="AT29" s="32"/>
       <c r="BJ29" s="33"/>
     </row>
-    <row r="30" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A30" s="29"/>
       <c r="D30" s="1"/>
       <c r="Q30" s="31"/>
@@ -11929,7 +11938,7 @@
       <c r="AT30" s="32"/>
       <c r="BJ30" s="33"/>
     </row>
-    <row r="31" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A31" s="29"/>
       <c r="D31" s="1"/>
       <c r="Q31" s="31"/>
@@ -11940,7 +11949,7 @@
       <c r="AT31" s="32"/>
       <c r="BJ31" s="33"/>
     </row>
-    <row r="32" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A32" s="29"/>
       <c r="D32" s="1"/>
       <c r="Q32" s="31"/>
@@ -11965,7 +11974,7 @@
       <c r="AT32" s="32"/>
       <c r="BJ32" s="33"/>
     </row>
-    <row r="33" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A33" s="29"/>
       <c r="D33" s="1"/>
       <c r="Q33" s="31"/>
@@ -11988,7 +11997,7 @@
       <c r="AT33" s="32"/>
       <c r="BJ33" s="33"/>
     </row>
-    <row r="34" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A34" s="29"/>
       <c r="D34" s="1"/>
       <c r="Q34" s="31"/>
@@ -12010,7 +12019,7 @@
       <c r="AT34" s="32"/>
       <c r="BJ34" s="33"/>
     </row>
-    <row r="35" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A35" s="29"/>
       <c r="D35" s="1"/>
       <c r="Q35" s="31"/>
@@ -12021,7 +12030,7 @@
       <c r="AT35" s="32"/>
       <c r="BJ35" s="33"/>
     </row>
-    <row r="36" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A36" s="29"/>
       <c r="D36" s="1"/>
       <c r="Q36" s="31"/>
@@ -12046,7 +12055,7 @@
       <c r="AT36" s="32"/>
       <c r="BJ36" s="33"/>
     </row>
-    <row r="37" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A37" s="29"/>
       <c r="D37" s="1"/>
       <c r="Q37" s="31"/>
@@ -12069,7 +12078,7 @@
       <c r="AT37" s="32"/>
       <c r="BJ37" s="33"/>
     </row>
-    <row r="38" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A38" s="29"/>
       <c r="D38" s="1"/>
       <c r="Q38" s="31"/>
@@ -12091,7 +12100,7 @@
       <c r="AT38" s="32"/>
       <c r="BJ38" s="33"/>
     </row>
-    <row r="39" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A39" s="29"/>
       <c r="D39" s="1"/>
       <c r="Q39" s="31"/>
@@ -12102,7 +12111,7 @@
       <c r="AT39" s="32"/>
       <c r="BJ39" s="33"/>
     </row>
-    <row r="40" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="40" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A40" s="29"/>
       <c r="D40" s="1"/>
       <c r="Q40" s="31"/>
@@ -12127,7 +12136,7 @@
       <c r="AT40" s="32"/>
       <c r="BJ40" s="33"/>
     </row>
-    <row r="41" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A41" s="29"/>
       <c r="D41" s="1"/>
       <c r="Q41" s="31"/>
@@ -12150,7 +12159,7 @@
       <c r="AT41" s="32"/>
       <c r="BJ41" s="33"/>
     </row>
-    <row r="42" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="42" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A42" s="29"/>
       <c r="D42" s="1"/>
       <c r="Q42" s="31"/>
@@ -12172,7 +12181,7 @@
       <c r="AT42" s="32"/>
       <c r="BJ42" s="33"/>
     </row>
-    <row r="43" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="43" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A43" s="29"/>
       <c r="D43" s="1"/>
       <c r="Q43" s="31"/>
@@ -12183,7 +12192,7 @@
       <c r="AT43" s="32"/>
       <c r="BJ43" s="33"/>
     </row>
-    <row r="44" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="44" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A44" s="29"/>
       <c r="D44" s="1"/>
       <c r="Q44" s="31"/>
@@ -12208,7 +12217,7 @@
       <c r="AT44" s="32"/>
       <c r="BJ44" s="33"/>
     </row>
-    <row r="45" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="45" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A45" s="29"/>
       <c r="D45" s="1"/>
       <c r="Q45" s="31"/>
@@ -12231,7 +12240,7 @@
       <c r="AT45" s="32"/>
       <c r="BJ45" s="33"/>
     </row>
-    <row r="46" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="46" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A46" s="29"/>
       <c r="D46" s="1"/>
       <c r="Q46" s="31"/>
@@ -12253,7 +12262,7 @@
       <c r="AT46" s="32"/>
       <c r="BJ46" s="33"/>
     </row>
-    <row r="47" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="47" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A47" s="29"/>
       <c r="D47" s="1"/>
       <c r="Q47" s="31"/>
@@ -12263,7 +12272,7 @@
       <c r="AT47" s="32"/>
       <c r="BJ47" s="33"/>
     </row>
-    <row r="48" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="48" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A48" s="29"/>
       <c r="D48" s="1"/>
       <c r="Q48" s="31"/>
@@ -12301,7 +12310,7 @@
       <c r="AT48" s="32"/>
       <c r="BJ48" s="33"/>
     </row>
-    <row r="49" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="49" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A49" s="29"/>
       <c r="D49" s="1"/>
       <c r="Q49" s="31"/>
@@ -12335,7 +12344,7 @@
       <c r="AT49" s="32"/>
       <c r="BJ49" s="33"/>
     </row>
-    <row r="50" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="50" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A50" s="29"/>
       <c r="D50" s="1"/>
       <c r="Q50" s="31"/>
@@ -12369,7 +12378,7 @@
       <c r="AT50" s="32"/>
       <c r="BJ50" s="33"/>
     </row>
-    <row r="51" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="51" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A51" s="29"/>
       <c r="D51" s="1"/>
       <c r="Q51" s="31"/>
@@ -12381,7 +12390,7 @@
       <c r="AT51" s="32"/>
       <c r="BJ51" s="33"/>
     </row>
-    <row r="52" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="52" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A52" s="29"/>
       <c r="D52" s="1"/>
       <c r="Q52" s="31"/>
@@ -12406,7 +12415,7 @@
       <c r="AT52" s="32"/>
       <c r="BJ52" s="33"/>
     </row>
-    <row r="53" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="53" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A53" s="29"/>
       <c r="D53" s="1"/>
       <c r="Q53" s="31"/>
@@ -12429,7 +12438,7 @@
       <c r="AT53" s="32"/>
       <c r="BJ53" s="33"/>
     </row>
-    <row r="54" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="54" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A54" s="29"/>
       <c r="D54" s="1"/>
       <c r="Q54" s="31"/>
@@ -12451,7 +12460,7 @@
       <c r="AT54" s="32"/>
       <c r="BJ54" s="33"/>
     </row>
-    <row r="55" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="55" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A55" s="38"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -12515,7 +12524,7 @@
       <c r="BI55" s="39"/>
       <c r="BJ55" s="40"/>
     </row>
-    <row r="56" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="56" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A56" s="29"/>
       <c r="D56" s="1"/>
       <c r="Q56" s="31"/>
@@ -12553,12 +12562,12 @@
       <c r="AT56" s="32"/>
       <c r="BJ56" s="33"/>
     </row>
-    <row r="57" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="57" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A57" s="29"/>
       <c r="D57" s="1"/>
       <c r="Q57" s="31"/>
       <c r="R57" s="29"/>
-      <c r="T57" s="84" t="s">
+      <c r="T57" s="129" t="s">
         <v>668</v>
       </c>
       <c r="U57" s="85"/>
@@ -12587,7 +12596,7 @@
       <c r="AT57" s="32"/>
       <c r="BJ57" s="33"/>
     </row>
-    <row r="58" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="58" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A58" s="29"/>
       <c r="D58" s="1"/>
       <c r="Q58" s="31"/>
@@ -12621,7 +12630,7 @@
       <c r="AT58" s="32"/>
       <c r="BJ58" s="33"/>
     </row>
-    <row r="59" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="59" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A59" s="29"/>
       <c r="D59" s="1"/>
       <c r="Q59" s="31"/>
@@ -12632,7 +12641,7 @@
       <c r="AT59" s="32"/>
       <c r="BJ59" s="33"/>
     </row>
-    <row r="60" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="60" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A60" s="29"/>
       <c r="D60" s="1"/>
       <c r="I60" s="1"/>
@@ -12660,7 +12669,7 @@
       <c r="AT60" s="32"/>
       <c r="BJ60" s="33"/>
     </row>
-    <row r="61" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="61" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A61" s="29"/>
       <c r="D61" s="1"/>
       <c r="Q61" s="31"/>
@@ -12684,7 +12693,7 @@
       <c r="AT61" s="32"/>
       <c r="BJ61" s="33"/>
     </row>
-    <row r="62" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="62" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A62" s="29"/>
       <c r="D62" s="1"/>
       <c r="Q62" s="31"/>
@@ -12707,7 +12716,7 @@
       <c r="AT62" s="32"/>
       <c r="BJ62" s="33"/>
     </row>
-    <row r="63" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="63" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A63" s="29"/>
       <c r="D63" s="1"/>
       <c r="Q63" s="31"/>
@@ -12718,7 +12727,7 @@
       <c r="AT63" s="32"/>
       <c r="BJ63" s="33"/>
     </row>
-    <row r="64" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="64" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A64" s="29"/>
       <c r="D64" s="1"/>
       <c r="I64" s="1"/>
@@ -12746,7 +12755,7 @@
       <c r="AT64" s="32"/>
       <c r="BJ64" s="33"/>
     </row>
-    <row r="65" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="65" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A65" s="29"/>
       <c r="D65" s="1"/>
       <c r="Q65" s="31"/>
@@ -12770,7 +12779,7 @@
       <c r="AT65" s="32"/>
       <c r="BJ65" s="33"/>
     </row>
-    <row r="66" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="66" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A66" s="29"/>
       <c r="D66" s="1"/>
       <c r="Q66" s="31"/>
@@ -12792,7 +12801,7 @@
       <c r="AT66" s="32"/>
       <c r="BJ66" s="33"/>
     </row>
-    <row r="67" spans="1:62" s="30" customFormat="1" ht="19.95" customHeight="1">
+    <row r="67" spans="1:62" s="30" customFormat="true" ht="19.95" customHeight="true">
       <c r="A67" s="29"/>
       <c r="D67" s="1"/>
       <c r="Q67" s="31"/>
@@ -12803,7 +12812,7 @@
       <c r="AT67" s="32"/>
       <c r="BJ67" s="33"/>
     </row>
-    <row r="68" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="68" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A68" s="29"/>
       <c r="D68" s="1"/>
       <c r="Q68" s="31"/>
@@ -12828,7 +12837,7 @@
       <c r="AT68" s="32"/>
       <c r="BJ68" s="33"/>
     </row>
-    <row r="69" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="69" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A69" s="29"/>
       <c r="D69" s="1"/>
       <c r="Q69" s="31"/>
@@ -12851,7 +12860,7 @@
       <c r="AT69" s="32"/>
       <c r="BJ69" s="33"/>
     </row>
-    <row r="70" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="70" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A70" s="29"/>
       <c r="D70" s="1"/>
       <c r="Q70" s="31"/>
@@ -12873,7 +12882,7 @@
       <c r="AT70" s="32"/>
       <c r="BJ70" s="33"/>
     </row>
-    <row r="71" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="71" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A71" s="29"/>
       <c r="D71" s="1"/>
       <c r="Q71" s="31"/>
@@ -12885,7 +12894,7 @@
       <c r="AT71" s="32"/>
       <c r="BJ71" s="33"/>
     </row>
-    <row r="72" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="72" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A72" s="29"/>
       <c r="D72" s="1"/>
       <c r="I72" s="1"/>
@@ -12913,7 +12922,7 @@
       <c r="AT72" s="32"/>
       <c r="BJ72" s="33"/>
     </row>
-    <row r="73" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="73" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A73" s="29"/>
       <c r="D73" s="1"/>
       <c r="Q73" s="31"/>
@@ -12937,7 +12946,7 @@
       <c r="AT73" s="32"/>
       <c r="BJ73" s="33"/>
     </row>
-    <row r="74" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="74" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A74" s="29"/>
       <c r="D74" s="1"/>
       <c r="Q74" s="31"/>
@@ -12960,7 +12969,7 @@
       <c r="AT74" s="32"/>
       <c r="BJ74" s="33"/>
     </row>
-    <row r="75" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="75" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A75" s="29"/>
       <c r="D75" s="1"/>
       <c r="Q75" s="31"/>
@@ -12972,7 +12981,7 @@
       <c r="AT75" s="32"/>
       <c r="BJ75" s="33"/>
     </row>
-    <row r="76" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="76" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A76" s="29"/>
       <c r="D76" s="1"/>
       <c r="I76" s="1"/>
@@ -13000,7 +13009,7 @@
       <c r="AT76" s="32"/>
       <c r="BJ76" s="33"/>
     </row>
-    <row r="77" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="77" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A77" s="29"/>
       <c r="D77" s="1"/>
       <c r="Q77" s="31"/>
@@ -13024,7 +13033,7 @@
       <c r="AT77" s="32"/>
       <c r="BJ77" s="33"/>
     </row>
-    <row r="78" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="78" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A78" s="29"/>
       <c r="D78" s="1"/>
       <c r="Q78" s="31"/>
@@ -13047,7 +13056,7 @@
       <c r="AT78" s="32"/>
       <c r="BJ78" s="33"/>
     </row>
-    <row r="79" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A79" s="29"/>
       <c r="D79" s="1"/>
       <c r="Q79" s="31"/>
@@ -13059,7 +13068,7 @@
       <c r="AT79" s="32"/>
       <c r="BJ79" s="33"/>
     </row>
-    <row r="80" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="80" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A80" s="29"/>
       <c r="D80" s="1"/>
       <c r="I80" s="1"/>
@@ -13087,7 +13096,7 @@
       <c r="AT80" s="32"/>
       <c r="BJ80" s="33"/>
     </row>
-    <row r="81" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="81" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A81" s="29"/>
       <c r="D81" s="1"/>
       <c r="Q81" s="31"/>
@@ -13111,7 +13120,7 @@
       <c r="AT81" s="32"/>
       <c r="BJ81" s="33"/>
     </row>
-    <row r="82" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="82" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A82" s="29"/>
       <c r="D82" s="1"/>
       <c r="Q82" s="31"/>
@@ -13134,7 +13143,7 @@
       <c r="AT82" s="32"/>
       <c r="BJ82" s="33"/>
     </row>
-    <row r="83" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="83" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A83" s="29"/>
       <c r="D83" s="1"/>
       <c r="Q83" s="31"/>
@@ -13146,7 +13155,7 @@
       <c r="AT83" s="32"/>
       <c r="BJ83" s="33"/>
     </row>
-    <row r="84" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="84" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A84" s="29"/>
       <c r="D84" s="1"/>
       <c r="I84" s="1"/>
@@ -13174,7 +13183,7 @@
       <c r="AT84" s="32"/>
       <c r="BJ84" s="33"/>
     </row>
-    <row r="85" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="85" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A85" s="29"/>
       <c r="D85" s="1"/>
       <c r="Q85" s="31"/>
@@ -13198,7 +13207,7 @@
       <c r="AT85" s="32"/>
       <c r="BJ85" s="33"/>
     </row>
-    <row r="86" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="86" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A86" s="29"/>
       <c r="D86" s="1"/>
       <c r="Q86" s="31"/>
@@ -13221,7 +13230,7 @@
       <c r="AT86" s="32"/>
       <c r="BJ86" s="33"/>
     </row>
-    <row r="87" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="87" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A87" s="38"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -13285,7 +13294,7 @@
       <c r="BI87" s="39"/>
       <c r="BJ87" s="40"/>
     </row>
-    <row r="88" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="88" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A88" s="29"/>
       <c r="D88" s="1"/>
       <c r="Q88" s="31"/>
@@ -13323,12 +13332,12 @@
       <c r="AT88" s="32"/>
       <c r="BJ88" s="33"/>
     </row>
-    <row r="89" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="89" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A89" s="29"/>
       <c r="D89" s="1"/>
       <c r="Q89" s="31"/>
       <c r="R89" s="29"/>
-      <c r="T89" s="84" t="s">
+      <c r="T89" s="129" t="s">
         <v>669</v>
       </c>
       <c r="U89" s="85"/>
@@ -13357,7 +13366,7 @@
       <c r="AT89" s="32"/>
       <c r="BJ89" s="33"/>
     </row>
-    <row r="90" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="90" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A90" s="29"/>
       <c r="D90" s="1"/>
       <c r="Q90" s="31"/>
@@ -13391,7 +13400,7 @@
       <c r="AT90" s="32"/>
       <c r="BJ90" s="33"/>
     </row>
-    <row r="91" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="91" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A91" s="29"/>
       <c r="D91" s="1"/>
       <c r="Q91" s="31"/>
@@ -13403,7 +13412,7 @@
       <c r="AT91" s="32"/>
       <c r="BJ91" s="33"/>
     </row>
-    <row r="92" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="92" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A92" s="29"/>
       <c r="D92" s="1"/>
       <c r="Q92" s="31"/>
@@ -13429,7 +13438,7 @@
       <c r="AT92" s="32"/>
       <c r="BJ92" s="33"/>
     </row>
-    <row r="93" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="93" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A93" s="29"/>
       <c r="D93" s="1"/>
       <c r="I93" s="1"/>
@@ -13455,7 +13464,7 @@
       <c r="AT93" s="32"/>
       <c r="BJ93" s="33"/>
     </row>
-    <row r="94" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="94" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A94" s="29"/>
       <c r="D94" s="1"/>
       <c r="Q94" s="31"/>
@@ -13478,7 +13487,7 @@
       <c r="AT94" s="32"/>
       <c r="BJ94" s="33"/>
     </row>
-    <row r="95" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="95" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A95" s="29"/>
       <c r="D95" s="1"/>
       <c r="Q95" s="31"/>
@@ -13489,7 +13498,7 @@
       <c r="AT95" s="32"/>
       <c r="BJ95" s="33"/>
     </row>
-    <row r="96" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="96" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A96" s="29"/>
       <c r="D96" s="1"/>
       <c r="Q96" s="31"/>
@@ -13514,7 +13523,7 @@
       <c r="AT96" s="32"/>
       <c r="BJ96" s="33"/>
     </row>
-    <row r="97" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="97" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A97" s="29"/>
       <c r="D97" s="1"/>
       <c r="Q97" s="31"/>
@@ -13537,7 +13546,7 @@
       <c r="AT97" s="32"/>
       <c r="BJ97" s="33"/>
     </row>
-    <row r="98" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="98" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A98" s="29"/>
       <c r="D98" s="1"/>
       <c r="Q98" s="31"/>
@@ -13559,7 +13568,7 @@
       <c r="AT98" s="32"/>
       <c r="BJ98" s="33"/>
     </row>
-    <row r="99" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="99" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A99" s="29"/>
       <c r="D99" s="1"/>
       <c r="Q99" s="31"/>
@@ -13570,7 +13579,7 @@
       <c r="AT99" s="32"/>
       <c r="BJ99" s="33"/>
     </row>
-    <row r="100" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="100" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A100" s="29"/>
       <c r="D100" s="1"/>
       <c r="I100" s="1"/>
@@ -13597,7 +13606,7 @@
       <c r="AT100" s="32"/>
       <c r="BJ100" s="33"/>
     </row>
-    <row r="101" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="101" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A101" s="29"/>
       <c r="D101" s="1"/>
       <c r="Q101" s="31"/>
@@ -13620,7 +13629,7 @@
       <c r="AT101" s="32"/>
       <c r="BJ101" s="33"/>
     </row>
-    <row r="102" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="102" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A102" s="29"/>
       <c r="D102" s="1"/>
       <c r="Q102" s="31"/>
@@ -13642,7 +13651,7 @@
       <c r="AT102" s="32"/>
       <c r="BJ102" s="33"/>
     </row>
-    <row r="103" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="103" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A103" s="29"/>
       <c r="D103" s="1"/>
       <c r="Q103" s="31"/>
@@ -13653,7 +13662,7 @@
       <c r="AT103" s="32"/>
       <c r="BJ103" s="33"/>
     </row>
-    <row r="104" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="104" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A104" s="29"/>
       <c r="D104" s="1"/>
       <c r="I104" s="1"/>
@@ -13680,7 +13689,7 @@
       <c r="AT104" s="32"/>
       <c r="BJ104" s="33"/>
     </row>
-    <row r="105" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="105" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A105" s="29"/>
       <c r="D105" s="1"/>
       <c r="Q105" s="31"/>
@@ -13703,7 +13712,7 @@
       <c r="AT105" s="32"/>
       <c r="BJ105" s="33"/>
     </row>
-    <row r="106" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="106" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A106" s="29"/>
       <c r="D106" s="1"/>
       <c r="Q106" s="31"/>
@@ -13725,7 +13734,7 @@
       <c r="AT106" s="32"/>
       <c r="BJ106" s="33"/>
     </row>
-    <row r="107" spans="1:62" s="30" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:62" s="30" customFormat="true" ht="20.1" customHeight="true">
       <c r="A107" s="29"/>
       <c r="D107" s="1"/>
       <c r="Q107" s="31"/>
@@ -13736,7 +13745,7 @@
       <c r="AT107" s="32"/>
       <c r="BJ107" s="33"/>
     </row>
-    <row r="108" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="108" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A108" s="29"/>
       <c r="D108" s="1"/>
       <c r="I108" s="1"/>
@@ -13764,7 +13773,7 @@
       <c r="AT108" s="32"/>
       <c r="BJ108" s="33"/>
     </row>
-    <row r="109" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="109" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A109" s="29"/>
       <c r="D109" s="1"/>
       <c r="Q109" s="31"/>
@@ -13788,7 +13797,7 @@
       <c r="AT109" s="32"/>
       <c r="BJ109" s="33"/>
     </row>
-    <row r="110" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="110" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A110" s="29"/>
       <c r="D110" s="1"/>
       <c r="Q110" s="31"/>
@@ -13810,7 +13819,7 @@
       <c r="AT110" s="32"/>
       <c r="BJ110" s="33"/>
     </row>
-    <row r="111" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="111" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A111" s="29"/>
       <c r="D111" s="1"/>
       <c r="Q111" s="31"/>
@@ -13822,7 +13831,7 @@
       <c r="AT111" s="32"/>
       <c r="BJ111" s="33"/>
     </row>
-    <row r="112" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="112" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A112" s="29"/>
       <c r="D112" s="1"/>
       <c r="Q112" s="31"/>
@@ -13847,7 +13856,7 @@
       <c r="AT112" s="32"/>
       <c r="BJ112" s="33"/>
     </row>
-    <row r="113" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="113" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A113" s="29"/>
       <c r="D113" s="1"/>
       <c r="Q113" s="31"/>
@@ -13870,7 +13879,7 @@
       <c r="AT113" s="32"/>
       <c r="BJ113" s="33"/>
     </row>
-    <row r="114" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="114" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A114" s="29"/>
       <c r="D114" s="1"/>
       <c r="Q114" s="31"/>
@@ -13892,7 +13901,7 @@
       <c r="AT114" s="32"/>
       <c r="BJ114" s="33"/>
     </row>
-    <row r="115" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="115" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A115" s="29"/>
       <c r="D115" s="1"/>
       <c r="Q115" s="31"/>
@@ -13904,7 +13913,7 @@
       <c r="AT115" s="32"/>
       <c r="BJ115" s="33"/>
     </row>
-    <row r="116" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="116" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A116" s="29"/>
       <c r="D116" s="1"/>
       <c r="Q116" s="31"/>
@@ -13929,7 +13938,7 @@
       <c r="AT116" s="32"/>
       <c r="BJ116" s="33"/>
     </row>
-    <row r="117" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="117" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A117" s="29"/>
       <c r="D117" s="1"/>
       <c r="Q117" s="31"/>
@@ -13952,7 +13961,7 @@
       <c r="AT117" s="32"/>
       <c r="BJ117" s="33"/>
     </row>
-    <row r="118" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="118" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A118" s="29"/>
       <c r="D118" s="1"/>
       <c r="Q118" s="31"/>
@@ -13974,7 +13983,7 @@
       <c r="AT118" s="32"/>
       <c r="BJ118" s="33"/>
     </row>
-    <row r="119" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="119" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A119" s="29"/>
       <c r="D119" s="1"/>
       <c r="Q119" s="31"/>
@@ -13986,7 +13995,7 @@
       <c r="AT119" s="32"/>
       <c r="BJ119" s="33"/>
     </row>
-    <row r="120" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="120" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A120" s="29"/>
       <c r="D120" s="1"/>
       <c r="Q120" s="31"/>
@@ -14011,7 +14020,7 @@
       <c r="AT120" s="32"/>
       <c r="BJ120" s="33"/>
     </row>
-    <row r="121" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="121" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A121" s="29"/>
       <c r="D121" s="1"/>
       <c r="Q121" s="31"/>
@@ -14034,7 +14043,7 @@
       <c r="AT121" s="32"/>
       <c r="BJ121" s="33"/>
     </row>
-    <row r="122" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="122" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A122" s="29"/>
       <c r="D122" s="1"/>
       <c r="Q122" s="31"/>
@@ -14056,7 +14065,7 @@
       <c r="AT122" s="32"/>
       <c r="BJ122" s="33"/>
     </row>
-    <row r="123" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="123" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A123" s="29"/>
       <c r="D123" s="1"/>
       <c r="Q123" s="31"/>
@@ -14068,7 +14077,7 @@
       <c r="AT123" s="32"/>
       <c r="BJ123" s="33"/>
     </row>
-    <row r="124" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="124" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A124" s="29"/>
       <c r="D124" s="1"/>
       <c r="Q124" s="31"/>
@@ -14093,7 +14102,7 @@
       <c r="AT124" s="32"/>
       <c r="BJ124" s="33"/>
     </row>
-    <row r="125" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="125" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A125" s="29"/>
       <c r="D125" s="1"/>
       <c r="Q125" s="31"/>
@@ -14116,7 +14125,7 @@
       <c r="AT125" s="32"/>
       <c r="BJ125" s="33"/>
     </row>
-    <row r="126" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="126" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A126" s="29"/>
       <c r="D126" s="1"/>
       <c r="Q126" s="31"/>
@@ -14138,7 +14147,7 @@
       <c r="AT126" s="32"/>
       <c r="BJ126" s="33"/>
     </row>
-    <row r="127" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="127" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A127" s="29"/>
       <c r="D127" s="1"/>
       <c r="Q127" s="31"/>
@@ -14150,7 +14159,7 @@
       <c r="AT127" s="32"/>
       <c r="BJ127" s="33"/>
     </row>
-    <row r="128" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="128" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A128" s="29"/>
       <c r="D128" s="1"/>
       <c r="Q128" s="31"/>
@@ -14175,7 +14184,7 @@
       <c r="AT128" s="32"/>
       <c r="BJ128" s="33"/>
     </row>
-    <row r="129" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="129" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A129" s="29"/>
       <c r="D129" s="1"/>
       <c r="Q129" s="31"/>
@@ -14198,7 +14207,7 @@
       <c r="AT129" s="32"/>
       <c r="BJ129" s="33"/>
     </row>
-    <row r="130" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="130" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A130" s="29"/>
       <c r="D130" s="1"/>
       <c r="Q130" s="31"/>
@@ -14220,7 +14229,7 @@
       <c r="AT130" s="32"/>
       <c r="BJ130" s="33"/>
     </row>
-    <row r="131" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="131" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A131" s="29"/>
       <c r="D131" s="1"/>
       <c r="Q131" s="31"/>
@@ -14232,7 +14241,7 @@
       <c r="AT131" s="32"/>
       <c r="BJ131" s="33"/>
     </row>
-    <row r="132" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="132" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A132" s="29"/>
       <c r="D132" s="1"/>
       <c r="Q132" s="31"/>
@@ -14257,7 +14266,7 @@
       <c r="AT132" s="32"/>
       <c r="BJ132" s="33"/>
     </row>
-    <row r="133" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="133" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A133" s="29"/>
       <c r="D133" s="1"/>
       <c r="Q133" s="31"/>
@@ -14280,7 +14289,7 @@
       <c r="AT133" s="32"/>
       <c r="BJ133" s="33"/>
     </row>
-    <row r="134" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="134" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A134" s="29"/>
       <c r="D134" s="1"/>
       <c r="Q134" s="31"/>
@@ -14302,7 +14311,7 @@
       <c r="AT134" s="32"/>
       <c r="BJ134" s="33"/>
     </row>
-    <row r="135" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="135" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A135" s="38"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
@@ -14366,7 +14375,7 @@
       <c r="BI135" s="39"/>
       <c r="BJ135" s="40"/>
     </row>
-    <row r="136" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="136" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A136" s="29"/>
       <c r="D136" s="1"/>
       <c r="Q136" s="31"/>
@@ -14404,7 +14413,7 @@
       <c r="AT136" s="32"/>
       <c r="BJ136" s="33"/>
     </row>
-    <row r="137" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="137" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A137" s="29"/>
       <c r="D137" s="1"/>
       <c r="Q137" s="31"/>
@@ -14438,7 +14447,7 @@
       <c r="AT137" s="32"/>
       <c r="BJ137" s="33"/>
     </row>
-    <row r="138" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="138" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A138" s="29"/>
       <c r="D138" s="1"/>
       <c r="Q138" s="31"/>
@@ -14472,7 +14481,7 @@
       <c r="AT138" s="32"/>
       <c r="BJ138" s="33"/>
     </row>
-    <row r="139" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="139" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A139" s="29"/>
       <c r="D139" s="1"/>
       <c r="Q139" s="31"/>
@@ -14483,7 +14492,7 @@
       <c r="AT139" s="32"/>
       <c r="BJ139" s="33"/>
     </row>
-    <row r="140" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="140" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A140" s="29"/>
       <c r="D140" s="1"/>
       <c r="I140" s="1"/>
@@ -14510,7 +14519,7 @@
       <c r="AT140" s="32"/>
       <c r="BJ140" s="33"/>
     </row>
-    <row r="141" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="141" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A141" s="29"/>
       <c r="D141" s="1"/>
       <c r="Q141" s="31"/>
@@ -14533,7 +14542,7 @@
       <c r="AT141" s="32"/>
       <c r="BJ141" s="33"/>
     </row>
-    <row r="142" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="142" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A142" s="29"/>
       <c r="D142" s="1"/>
       <c r="Q142" s="31"/>
@@ -14555,7 +14564,7 @@
       <c r="AT142" s="32"/>
       <c r="BJ142" s="33"/>
     </row>
-    <row r="143" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="143" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A143" s="29"/>
       <c r="D143" s="1"/>
       <c r="Q143" s="31"/>
@@ -14567,7 +14576,7 @@
       <c r="AT143" s="32"/>
       <c r="BJ143" s="33"/>
     </row>
-    <row r="144" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="144" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A144" s="29"/>
       <c r="D144" s="1"/>
       <c r="I144" s="1"/>
@@ -14595,7 +14604,7 @@
       <c r="AT144" s="32"/>
       <c r="BJ144" s="33"/>
     </row>
-    <row r="145" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="145" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A145" s="29"/>
       <c r="D145" s="1"/>
       <c r="Q145" s="31"/>
@@ -14619,7 +14628,7 @@
       <c r="AT145" s="32"/>
       <c r="BJ145" s="33"/>
     </row>
-    <row r="146" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="146" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A146" s="29"/>
       <c r="D146" s="1"/>
       <c r="Q146" s="31"/>
@@ -14642,7 +14651,7 @@
       <c r="AT146" s="32"/>
       <c r="BJ146" s="33"/>
     </row>
-    <row r="147" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="147" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A147" s="29"/>
       <c r="D147" s="1"/>
       <c r="Q147" s="31"/>
@@ -14653,7 +14662,7 @@
       <c r="AT147" s="32"/>
       <c r="BJ147" s="33"/>
     </row>
-    <row r="148" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="148" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A148" s="29"/>
       <c r="D148" s="1"/>
       <c r="I148" s="1"/>
@@ -14681,7 +14690,7 @@
       <c r="AT148" s="32"/>
       <c r="BJ148" s="33"/>
     </row>
-    <row r="149" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="149" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A149" s="29"/>
       <c r="D149" s="1"/>
       <c r="Q149" s="31"/>
@@ -14705,7 +14714,7 @@
       <c r="AT149" s="32"/>
       <c r="BJ149" s="33"/>
     </row>
-    <row r="150" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="150" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A150" s="29"/>
       <c r="D150" s="1"/>
       <c r="Q150" s="31"/>
@@ -14728,7 +14737,7 @@
       <c r="AT150" s="32"/>
       <c r="BJ150" s="33"/>
     </row>
-    <row r="151" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="151" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A151" s="29"/>
       <c r="D151" s="1"/>
       <c r="Q151" s="31"/>
@@ -14738,7 +14747,7 @@
       <c r="AT151" s="32"/>
       <c r="BJ151" s="33"/>
     </row>
-    <row r="152" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="152" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A152" s="29"/>
       <c r="D152" s="1"/>
       <c r="Q152" s="31"/>
@@ -14776,7 +14785,7 @@
       <c r="AT152" s="32"/>
       <c r="BJ152" s="33"/>
     </row>
-    <row r="153" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="153" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A153" s="29"/>
       <c r="D153" s="1"/>
       <c r="I153" s="1"/>
@@ -14814,7 +14823,7 @@
       <c r="AT153" s="32"/>
       <c r="BJ153" s="33"/>
     </row>
-    <row r="154" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="154" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A154" s="29"/>
       <c r="D154" s="1"/>
       <c r="Q154" s="31"/>
@@ -14847,7 +14856,7 @@
       <c r="AT154" s="32"/>
       <c r="BJ154" s="33"/>
     </row>
-    <row r="155" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="155" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A155" s="29"/>
       <c r="D155" s="1"/>
       <c r="Q155" s="31"/>
@@ -14858,7 +14867,7 @@
       <c r="AT155" s="32"/>
       <c r="BJ155" s="33"/>
     </row>
-    <row r="156" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="156" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A156" s="29"/>
       <c r="D156" s="1"/>
       <c r="Q156" s="31"/>
@@ -14883,7 +14892,7 @@
       <c r="AT156" s="32"/>
       <c r="BJ156" s="33"/>
     </row>
-    <row r="157" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="157" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A157" s="29"/>
       <c r="D157" s="1"/>
       <c r="Q157" s="31"/>
@@ -14906,7 +14915,7 @@
       <c r="AT157" s="32"/>
       <c r="BJ157" s="33"/>
     </row>
-    <row r="158" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="158" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A158" s="29"/>
       <c r="D158" s="1"/>
       <c r="Q158" s="31"/>
@@ -14928,7 +14937,7 @@
       <c r="AT158" s="32"/>
       <c r="BJ158" s="33"/>
     </row>
-    <row r="159" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="159" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A159" s="29"/>
       <c r="D159" s="1"/>
       <c r="Q159" s="31"/>
@@ -14939,7 +14948,7 @@
       <c r="AT159" s="32"/>
       <c r="BJ159" s="33"/>
     </row>
-    <row r="160" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="160" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A160" s="29"/>
       <c r="D160" s="1"/>
       <c r="Q160" s="31"/>
@@ -14964,7 +14973,7 @@
       <c r="AT160" s="32"/>
       <c r="BJ160" s="33"/>
     </row>
-    <row r="161" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="161" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A161" s="29"/>
       <c r="D161" s="1"/>
       <c r="Q161" s="31"/>
@@ -14987,7 +14996,7 @@
       <c r="AT161" s="32"/>
       <c r="BJ161" s="33"/>
     </row>
-    <row r="162" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="162" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A162" s="29"/>
       <c r="D162" s="1"/>
       <c r="Q162" s="31"/>
@@ -15009,7 +15018,7 @@
       <c r="AT162" s="32"/>
       <c r="BJ162" s="33"/>
     </row>
-    <row r="163" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="163" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A163" s="29"/>
       <c r="D163" s="1"/>
       <c r="Q163" s="31"/>
@@ -15020,7 +15029,7 @@
       <c r="AT163" s="32"/>
       <c r="BJ163" s="33"/>
     </row>
-    <row r="164" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="164" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A164" s="29"/>
       <c r="D164" s="1"/>
       <c r="Q164" s="31"/>
@@ -15045,7 +15054,7 @@
       <c r="AT164" s="32"/>
       <c r="BJ164" s="33"/>
     </row>
-    <row r="165" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="165" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A165" s="29"/>
       <c r="D165" s="1"/>
       <c r="Q165" s="31"/>
@@ -15068,7 +15077,7 @@
       <c r="AT165" s="32"/>
       <c r="BJ165" s="33"/>
     </row>
-    <row r="166" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="166" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A166" s="29"/>
       <c r="D166" s="1"/>
       <c r="Q166" s="31"/>
@@ -15090,7 +15099,7 @@
       <c r="AT166" s="32"/>
       <c r="BJ166" s="33"/>
     </row>
-    <row r="167" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="167" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A167" s="29"/>
       <c r="D167" s="1"/>
       <c r="Q167" s="31"/>
@@ -15101,7 +15110,7 @@
       <c r="AT167" s="32"/>
       <c r="BJ167" s="33"/>
     </row>
-    <row r="168" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="168" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A168" s="29"/>
       <c r="D168" s="1"/>
       <c r="Q168" s="31"/>
@@ -15126,7 +15135,7 @@
       <c r="AT168" s="32"/>
       <c r="BJ168" s="33"/>
     </row>
-    <row r="169" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="169" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A169" s="29"/>
       <c r="D169" s="1"/>
       <c r="Q169" s="31"/>
@@ -15149,7 +15158,7 @@
       <c r="AT169" s="32"/>
       <c r="BJ169" s="33"/>
     </row>
-    <row r="170" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="170" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A170" s="29"/>
       <c r="D170" s="1"/>
       <c r="Q170" s="31"/>
@@ -15171,7 +15180,7 @@
       <c r="AT170" s="32"/>
       <c r="BJ170" s="33"/>
     </row>
-    <row r="171" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="171" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A171" s="29"/>
       <c r="D171" s="1"/>
       <c r="Q171" s="31"/>
@@ -15182,7 +15191,7 @@
       <c r="AT171" s="32"/>
       <c r="BJ171" s="33"/>
     </row>
-    <row r="172" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="172" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A172" s="29"/>
       <c r="D172" s="1"/>
       <c r="Q172" s="31"/>
@@ -15208,7 +15217,7 @@
       <c r="AT172" s="32"/>
       <c r="BJ172" s="33"/>
     </row>
-    <row r="173" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="173" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A173" s="29"/>
       <c r="D173" s="1"/>
       <c r="Q173" s="31"/>
@@ -15232,7 +15241,7 @@
       <c r="AT173" s="32"/>
       <c r="BJ173" s="33"/>
     </row>
-    <row r="174" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="174" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A174" s="29"/>
       <c r="D174" s="1"/>
       <c r="Q174" s="31"/>
@@ -15255,7 +15264,7 @@
       <c r="AT174" s="32"/>
       <c r="BJ174" s="33"/>
     </row>
-    <row r="175" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="175" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A175" s="29"/>
       <c r="D175" s="1"/>
       <c r="Q175" s="31"/>
@@ -15277,7 +15286,7 @@
       <c r="AT175" s="32"/>
       <c r="BJ175" s="33"/>
     </row>
-    <row r="176" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="176" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A176" s="29"/>
       <c r="D176" s="1"/>
       <c r="Q176" s="31"/>
@@ -15303,7 +15312,7 @@
       <c r="AT176" s="32"/>
       <c r="BJ176" s="33"/>
     </row>
-    <row r="177" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="177" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A177" s="29"/>
       <c r="D177" s="1"/>
       <c r="Q177" s="31"/>
@@ -15327,7 +15336,7 @@
       <c r="AT177" s="32"/>
       <c r="BJ177" s="33"/>
     </row>
-    <row r="178" spans="1:62" s="30" customFormat="1" ht="19.95" customHeight="1">
+    <row r="178" spans="1:62" s="30" customFormat="true" ht="19.95" customHeight="true">
       <c r="A178" s="29"/>
       <c r="D178" s="1"/>
       <c r="Q178" s="31"/>
@@ -15350,7 +15359,7 @@
       <c r="AT178" s="32"/>
       <c r="BJ178" s="33"/>
     </row>
-    <row r="179" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="179" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A179" s="38"/>
       <c r="B179" s="39"/>
       <c r="C179" s="39"/>
@@ -15414,7 +15423,7 @@
       <c r="BI179" s="39"/>
       <c r="BJ179" s="40"/>
     </row>
-    <row r="180" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="180" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A180" s="29"/>
       <c r="D180" s="1"/>
       <c r="I180" s="1"/>
@@ -15453,7 +15462,7 @@
       <c r="AT180" s="32"/>
       <c r="BJ180" s="33"/>
     </row>
-    <row r="181" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="181" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A181" s="29"/>
       <c r="D181" s="1"/>
       <c r="Q181" s="31"/>
@@ -15487,7 +15496,7 @@
       <c r="AT181" s="32"/>
       <c r="BJ181" s="33"/>
     </row>
-    <row r="182" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="182" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A182" s="29"/>
       <c r="D182" s="1"/>
       <c r="Q182" s="31"/>
@@ -15521,7 +15530,7 @@
       <c r="AT182" s="32"/>
       <c r="BJ182" s="33"/>
     </row>
-    <row r="183" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="183" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A183" s="29"/>
       <c r="D183" s="1"/>
       <c r="Q183" s="31"/>
@@ -15532,7 +15541,7 @@
       <c r="AT183" s="32"/>
       <c r="BJ183" s="33"/>
     </row>
-    <row r="184" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="184" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A184" s="29"/>
       <c r="D184" s="1"/>
       <c r="I184" s="1"/>
@@ -15560,7 +15569,7 @@
       <c r="AT184" s="32"/>
       <c r="BJ184" s="33"/>
     </row>
-    <row r="185" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="185" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A185" s="29"/>
       <c r="D185" s="1"/>
       <c r="Q185" s="31"/>
@@ -15584,7 +15593,7 @@
       <c r="AT185" s="32"/>
       <c r="BJ185" s="33"/>
     </row>
-    <row r="186" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="186" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A186" s="29"/>
       <c r="D186" s="1"/>
       <c r="Q186" s="31"/>
@@ -15607,7 +15616,7 @@
       <c r="AT186" s="32"/>
       <c r="BJ186" s="33"/>
     </row>
-    <row r="187" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="187" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A187" s="29"/>
       <c r="D187" s="1"/>
       <c r="Q187" s="31"/>
@@ -15619,7 +15628,7 @@
       <c r="AT187" s="32"/>
       <c r="BJ187" s="33"/>
     </row>
-    <row r="188" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="188" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A188" s="29"/>
       <c r="D188" s="1"/>
       <c r="I188" s="1"/>
@@ -15647,7 +15656,7 @@
       <c r="AT188" s="32"/>
       <c r="BJ188" s="33"/>
     </row>
-    <row r="189" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="189" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A189" s="29"/>
       <c r="D189" s="1"/>
       <c r="Q189" s="31"/>
@@ -15671,7 +15680,7 @@
       <c r="AT189" s="32"/>
       <c r="BJ189" s="33"/>
     </row>
-    <row r="190" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="190" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A190" s="29"/>
       <c r="D190" s="1"/>
       <c r="Q190" s="31"/>
@@ -15693,7 +15702,7 @@
       <c r="AT190" s="32"/>
       <c r="BJ190" s="33"/>
     </row>
-    <row r="191" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="191" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A191" s="29"/>
       <c r="D191" s="1"/>
       <c r="Q191" s="31"/>
@@ -15703,7 +15712,7 @@
       <c r="AT191" s="32"/>
       <c r="BJ191" s="33"/>
     </row>
-    <row r="192" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="192" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A192" s="29"/>
       <c r="D192" s="1"/>
       <c r="I192" s="1"/>
@@ -15742,7 +15751,7 @@
       <c r="AT192" s="32"/>
       <c r="BJ192" s="33"/>
     </row>
-    <row r="193" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="193" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A193" s="29"/>
       <c r="D193" s="1"/>
       <c r="Q193" s="31"/>
@@ -15779,7 +15788,7 @@
       <c r="AT193" s="32"/>
       <c r="BJ193" s="33"/>
     </row>
-    <row r="194" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="194" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A194" s="29"/>
       <c r="D194" s="1"/>
       <c r="Q194" s="31"/>
@@ -15812,7 +15821,7 @@
       <c r="AT194" s="32"/>
       <c r="BJ194" s="33"/>
     </row>
-    <row r="195" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="195" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A195" s="29"/>
       <c r="D195" s="1"/>
       <c r="Q195" s="31"/>
@@ -15823,7 +15832,7 @@
       <c r="AT195" s="32"/>
       <c r="BJ195" s="33"/>
     </row>
-    <row r="196" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="196" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A196" s="29"/>
       <c r="D196" s="1"/>
       <c r="Q196" s="31"/>
@@ -15847,7 +15856,7 @@
       <c r="AT196" s="32"/>
       <c r="BJ196" s="33"/>
     </row>
-    <row r="197" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="197" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A197" s="29"/>
       <c r="D197" s="1"/>
       <c r="Q197" s="31"/>
@@ -15870,7 +15879,7 @@
       <c r="AT197" s="32"/>
       <c r="BJ197" s="33"/>
     </row>
-    <row r="198" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="198" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A198" s="29"/>
       <c r="D198" s="1"/>
       <c r="Q198" s="31"/>
@@ -15890,7 +15899,7 @@
       <c r="AT198" s="32"/>
       <c r="BJ198" s="33"/>
     </row>
-    <row r="199" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="199" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A199" s="29"/>
       <c r="D199" s="1"/>
       <c r="Q199" s="31"/>
@@ -15899,7 +15908,7 @@
       <c r="AT199" s="32"/>
       <c r="BJ199" s="33"/>
     </row>
-    <row r="200" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="200" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A200" s="29"/>
       <c r="D200" s="1"/>
       <c r="Q200" s="31"/>
@@ -15936,7 +15945,7 @@
       <c r="AT200" s="32"/>
       <c r="BJ200" s="33"/>
     </row>
-    <row r="201" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="201" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A201" s="29"/>
       <c r="D201" s="1"/>
       <c r="Q201" s="31"/>
@@ -15973,7 +15982,7 @@
       <c r="AT201" s="32"/>
       <c r="BJ201" s="33"/>
     </row>
-    <row r="202" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="202" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A202" s="29"/>
       <c r="D202" s="1"/>
       <c r="Q202" s="31"/>
@@ -16006,7 +16015,7 @@
       <c r="AT202" s="32"/>
       <c r="BJ202" s="33"/>
     </row>
-    <row r="203" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="203" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A203" s="29"/>
       <c r="D203" s="1"/>
       <c r="Q203" s="31"/>
@@ -16017,7 +16026,7 @@
       <c r="AT203" s="32"/>
       <c r="BJ203" s="33"/>
     </row>
-    <row r="204" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="204" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A204" s="29"/>
       <c r="D204" s="1"/>
       <c r="Q204" s="31"/>
@@ -16042,7 +16051,7 @@
       <c r="AT204" s="32"/>
       <c r="BJ204" s="33"/>
     </row>
-    <row r="205" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="205" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A205" s="29"/>
       <c r="D205" s="1"/>
       <c r="Q205" s="31"/>
@@ -16065,7 +16074,7 @@
       <c r="AT205" s="32"/>
       <c r="BJ205" s="33"/>
     </row>
-    <row r="206" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="206" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A206" s="29"/>
       <c r="D206" s="1"/>
       <c r="Q206" s="31"/>
@@ -16087,7 +16096,7 @@
       <c r="AT206" s="32"/>
       <c r="BJ206" s="33"/>
     </row>
-    <row r="207" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="207" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A207" s="29"/>
       <c r="D207" s="1"/>
       <c r="Q207" s="31"/>
@@ -16098,7 +16107,7 @@
       <c r="AT207" s="32"/>
       <c r="BJ207" s="33"/>
     </row>
-    <row r="208" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="208" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A208" s="29"/>
       <c r="D208" s="1"/>
       <c r="Q208" s="31"/>
@@ -16123,7 +16132,7 @@
       <c r="AT208" s="32"/>
       <c r="BJ208" s="33"/>
     </row>
-    <row r="209" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="209" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A209" s="29"/>
       <c r="D209" s="1"/>
       <c r="Q209" s="31"/>
@@ -16146,7 +16155,7 @@
       <c r="AT209" s="32"/>
       <c r="BJ209" s="33"/>
     </row>
-    <row r="210" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="210" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A210" s="29"/>
       <c r="D210" s="1"/>
       <c r="Q210" s="31"/>
@@ -16168,7 +16177,7 @@
       <c r="AT210" s="32"/>
       <c r="BJ210" s="33"/>
     </row>
-    <row r="211" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="211" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A211" s="29"/>
       <c r="D211" s="1"/>
       <c r="Q211" s="31"/>
@@ -16179,7 +16188,7 @@
       <c r="AT211" s="32"/>
       <c r="BJ211" s="33"/>
     </row>
-    <row r="212" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="212" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A212" s="29"/>
       <c r="D212" s="1"/>
       <c r="Q212" s="31"/>
@@ -16204,7 +16213,7 @@
       <c r="AT212" s="32"/>
       <c r="BJ212" s="33"/>
     </row>
-    <row r="213" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="213" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A213" s="29"/>
       <c r="D213" s="1"/>
       <c r="Q213" s="31"/>
@@ -16227,7 +16236,7 @@
       <c r="AT213" s="32"/>
       <c r="BJ213" s="33"/>
     </row>
-    <row r="214" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="214" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A214" s="29"/>
       <c r="D214" s="1"/>
       <c r="Q214" s="31"/>
@@ -16249,7 +16258,7 @@
       <c r="AT214" s="32"/>
       <c r="BJ214" s="33"/>
     </row>
-    <row r="215" spans="1:62" s="30" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="215" spans="1:62" s="30" customFormat="true" ht="20.4" customHeight="true">
       <c r="A215" s="29"/>
       <c r="D215" s="1"/>
       <c r="Q215" s="31"/>
@@ -16260,7 +16269,7 @@
       <c r="AT215" s="32"/>
       <c r="BJ215" s="33"/>
     </row>
-    <row r="216" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="216" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A216" s="29"/>
       <c r="D216" s="1"/>
       <c r="Q216" s="31"/>
@@ -16285,7 +16294,7 @@
       <c r="AT216" s="32"/>
       <c r="BJ216" s="33"/>
     </row>
-    <row r="217" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="217" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A217" s="29"/>
       <c r="D217" s="1"/>
       <c r="Q217" s="31"/>
@@ -16308,7 +16317,7 @@
       <c r="AT217" s="32"/>
       <c r="BJ217" s="33"/>
     </row>
-    <row r="218" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="218" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A218" s="29"/>
       <c r="D218" s="1"/>
       <c r="Q218" s="31"/>
@@ -16330,7 +16339,7 @@
       <c r="AT218" s="32"/>
       <c r="BJ218" s="33"/>
     </row>
-    <row r="219" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="219" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A219" s="38"/>
       <c r="B219" s="39"/>
       <c r="C219" s="39"/>
@@ -16394,7 +16403,7 @@
       <c r="BI219" s="39"/>
       <c r="BJ219" s="40"/>
     </row>
-    <row r="220" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="220" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A220" s="29"/>
       <c r="D220" s="1"/>
       <c r="Q220" s="31"/>
@@ -16419,7 +16428,7 @@
       <c r="AT220" s="32"/>
       <c r="BJ220" s="33"/>
     </row>
-    <row r="221" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="221" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A221" s="29"/>
       <c r="D221" s="1"/>
       <c r="Q221" s="31"/>
@@ -16442,7 +16451,7 @@
       <c r="AT221" s="32"/>
       <c r="BJ221" s="33"/>
     </row>
-    <row r="222" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="222" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A222" s="29"/>
       <c r="D222" s="1"/>
       <c r="Q222" s="31"/>
@@ -16464,7 +16473,7 @@
       <c r="AT222" s="32"/>
       <c r="BJ222" s="33"/>
     </row>
-    <row r="223" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="223" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A223" s="29"/>
       <c r="D223" s="1"/>
       <c r="Q223" s="31"/>
@@ -16475,7 +16484,7 @@
       <c r="AT223" s="32"/>
       <c r="BJ223" s="33"/>
     </row>
-    <row r="224" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="224" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A224" s="29"/>
       <c r="D224" s="1"/>
       <c r="Q224" s="31"/>
@@ -16500,7 +16509,7 @@
       <c r="AT224" s="32"/>
       <c r="BJ224" s="33"/>
     </row>
-    <row r="225" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="225" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A225" s="29"/>
       <c r="D225" s="1"/>
       <c r="Q225" s="31"/>
@@ -16523,7 +16532,7 @@
       <c r="AT225" s="32"/>
       <c r="BJ225" s="33"/>
     </row>
-    <row r="226" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="226" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A226" s="29"/>
       <c r="D226" s="1"/>
       <c r="Q226" s="31"/>
@@ -16545,7 +16554,7 @@
       <c r="AT226" s="32"/>
       <c r="BJ226" s="33"/>
     </row>
-    <row r="227" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="227" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A227" s="29"/>
       <c r="D227" s="1"/>
       <c r="Q227" s="31"/>
@@ -16556,7 +16565,7 @@
       <c r="AT227" s="32"/>
       <c r="BJ227" s="33"/>
     </row>
-    <row r="228" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="228" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A228" s="29"/>
       <c r="D228" s="1"/>
       <c r="Q228" s="31"/>
@@ -16581,7 +16590,7 @@
       <c r="AT228" s="32"/>
       <c r="BJ228" s="33"/>
     </row>
-    <row r="229" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="229" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A229" s="29"/>
       <c r="D229" s="1"/>
       <c r="Q229" s="31"/>
@@ -16604,7 +16613,7 @@
       <c r="AT229" s="32"/>
       <c r="BJ229" s="33"/>
     </row>
-    <row r="230" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="230" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A230" s="29"/>
       <c r="D230" s="1"/>
       <c r="Q230" s="31"/>
@@ -16626,7 +16635,7 @@
       <c r="AT230" s="32"/>
       <c r="BJ230" s="33"/>
     </row>
-    <row r="231" spans="1:94" s="30" customFormat="1" ht="19.95" customHeight="1">
+    <row r="231" spans="1:94" s="30" customFormat="true" ht="19.95" customHeight="true">
       <c r="A231" s="29"/>
       <c r="D231" s="1"/>
       <c r="Q231" s="31"/>
@@ -16637,7 +16646,7 @@
       <c r="AT231" s="32"/>
       <c r="BJ231" s="33"/>
     </row>
-    <row r="232" spans="1:94" ht="18" customHeight="1">
+    <row r="232" spans="1:94" ht="18" customHeight="true">
       <c r="A232" s="22"/>
       <c r="Q232" s="31"/>
       <c r="R232" s="29"/>
@@ -16689,7 +16698,7 @@
       <c r="CN232" s="30"/>
       <c r="CO232" s="30"/>
     </row>
-    <row r="233" spans="1:94" ht="18" customHeight="1">
+    <row r="233" spans="1:94" ht="18" customHeight="true">
       <c r="A233" s="22"/>
       <c r="Q233" s="31"/>
       <c r="R233" s="29"/>
@@ -16739,7 +16748,7 @@
       <c r="CN233" s="30"/>
       <c r="CO233" s="30"/>
     </row>
-    <row r="234" spans="1:94" ht="18" customHeight="1">
+    <row r="234" spans="1:94" ht="18" customHeight="true">
       <c r="A234" s="22"/>
       <c r="Q234" s="31"/>
       <c r="R234" s="29"/>
@@ -16771,7 +16780,7 @@
       <c r="AR234" s="89"/>
       <c r="BJ234" s="23"/>
     </row>
-    <row r="235" spans="1:94" ht="18" customHeight="1">
+    <row r="235" spans="1:94" ht="18" customHeight="true">
       <c r="A235" s="22"/>
       <c r="Q235" s="31"/>
       <c r="R235" s="29"/>
@@ -16793,7 +16802,7 @@
       <c r="AH235" s="30"/>
       <c r="BJ235" s="23"/>
     </row>
-    <row r="236" spans="1:94" ht="18" customHeight="1">
+    <row r="236" spans="1:94" ht="18" customHeight="true">
       <c r="A236" s="22"/>
       <c r="Q236" s="31"/>
       <c r="R236" s="29"/>
@@ -16845,7 +16854,7 @@
       <c r="CO236" s="30"/>
       <c r="CP236" s="30"/>
     </row>
-    <row r="237" spans="1:94" ht="18" customHeight="1">
+    <row r="237" spans="1:94" ht="18" customHeight="true">
       <c r="A237" s="22"/>
       <c r="R237" s="29"/>
       <c r="S237" s="30"/>
@@ -16894,7 +16903,7 @@
       <c r="CO237" s="30"/>
       <c r="CP237" s="30"/>
     </row>
-    <row r="238" spans="1:94" ht="18" customHeight="1">
+    <row r="238" spans="1:94" ht="18" customHeight="true">
       <c r="A238" s="22"/>
       <c r="R238" s="29"/>
       <c r="S238" s="30"/>
@@ -16925,7 +16934,7 @@
       <c r="AR238" s="89"/>
       <c r="BJ238" s="23"/>
     </row>
-    <row r="239" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="239" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A239" s="29"/>
       <c r="D239" s="1"/>
       <c r="Q239" s="31"/>
@@ -16936,7 +16945,7 @@
       <c r="AT239" s="32"/>
       <c r="BJ239" s="33"/>
     </row>
-    <row r="240" spans="1:94" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="240" spans="1:94" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A240" s="29"/>
       <c r="D240" s="1"/>
       <c r="Q240" s="31"/>
@@ -16961,7 +16970,7 @@
       <c r="AT240" s="32"/>
       <c r="BJ240" s="33"/>
     </row>
-    <row r="241" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="241" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A241" s="29"/>
       <c r="D241" s="1"/>
       <c r="Q241" s="31"/>
@@ -16984,7 +16993,7 @@
       <c r="AT241" s="32"/>
       <c r="BJ241" s="33"/>
     </row>
-    <row r="242" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="242" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A242" s="29"/>
       <c r="D242" s="1"/>
       <c r="Q242" s="31"/>
@@ -17006,7 +17015,7 @@
       <c r="AT242" s="32"/>
       <c r="BJ242" s="33"/>
     </row>
-    <row r="243" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="243" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A243" s="29"/>
       <c r="D243" s="1"/>
       <c r="Q243" s="31"/>
@@ -17017,7 +17026,7 @@
       <c r="AT243" s="32"/>
       <c r="BJ243" s="33"/>
     </row>
-    <row r="244" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="244" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A244" s="29"/>
       <c r="D244" s="1"/>
       <c r="Q244" s="31"/>
@@ -17042,7 +17051,7 @@
       <c r="AT244" s="32"/>
       <c r="BJ244" s="33"/>
     </row>
-    <row r="245" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="245" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A245" s="29"/>
       <c r="D245" s="1"/>
       <c r="Q245" s="31"/>
@@ -17065,7 +17074,7 @@
       <c r="AT245" s="32"/>
       <c r="BJ245" s="33"/>
     </row>
-    <row r="246" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="246" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A246" s="29"/>
       <c r="D246" s="1"/>
       <c r="Q246" s="31"/>
@@ -17087,7 +17096,7 @@
       <c r="AT246" s="32"/>
       <c r="BJ246" s="33"/>
     </row>
-    <row r="247" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="247" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A247" s="29"/>
       <c r="D247" s="1"/>
       <c r="Q247" s="31"/>
@@ -17098,7 +17107,7 @@
       <c r="AT247" s="32"/>
       <c r="BJ247" s="33"/>
     </row>
-    <row r="248" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="248" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A248" s="29"/>
       <c r="D248" s="1"/>
       <c r="Q248" s="31"/>
@@ -17123,7 +17132,7 @@
       <c r="AT248" s="32"/>
       <c r="BJ248" s="33"/>
     </row>
-    <row r="249" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="249" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A249" s="29"/>
       <c r="D249" s="1"/>
       <c r="Q249" s="31"/>
@@ -17146,7 +17155,7 @@
       <c r="AT249" s="32"/>
       <c r="BJ249" s="33"/>
     </row>
-    <row r="250" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="250" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A250" s="29"/>
       <c r="D250" s="1"/>
       <c r="Q250" s="31"/>
@@ -17168,7 +17177,7 @@
       <c r="AT250" s="32"/>
       <c r="BJ250" s="33"/>
     </row>
-    <row r="251" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="251" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A251" s="29"/>
       <c r="D251" s="1"/>
       <c r="Q251" s="31"/>
@@ -17179,7 +17188,7 @@
       <c r="AT251" s="32"/>
       <c r="BJ251" s="33"/>
     </row>
-    <row r="252" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="252" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A252" s="29"/>
       <c r="D252" s="1"/>
       <c r="Q252" s="31"/>
@@ -17204,7 +17213,7 @@
       <c r="AT252" s="32"/>
       <c r="BJ252" s="33"/>
     </row>
-    <row r="253" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="253" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A253" s="29"/>
       <c r="D253" s="1"/>
       <c r="Q253" s="31"/>
@@ -17227,7 +17236,7 @@
       <c r="AT253" s="32"/>
       <c r="BJ253" s="33"/>
     </row>
-    <row r="254" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="254" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A254" s="29"/>
       <c r="D254" s="1"/>
       <c r="Q254" s="31"/>
@@ -17249,7 +17258,7 @@
       <c r="AT254" s="32"/>
       <c r="BJ254" s="33"/>
     </row>
-    <row r="255" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="255" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A255" s="29"/>
       <c r="D255" s="1"/>
       <c r="Q255" s="31"/>
@@ -17260,7 +17269,7 @@
       <c r="AT255" s="32"/>
       <c r="BJ255" s="33"/>
     </row>
-    <row r="256" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="256" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A256" s="29"/>
       <c r="D256" s="1"/>
       <c r="Q256" s="31"/>
@@ -17285,7 +17294,7 @@
       <c r="AT256" s="32"/>
       <c r="BJ256" s="33"/>
     </row>
-    <row r="257" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="257" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A257" s="29"/>
       <c r="D257" s="1"/>
       <c r="Q257" s="31"/>
@@ -17308,7 +17317,7 @@
       <c r="AT257" s="32"/>
       <c r="BJ257" s="33"/>
     </row>
-    <row r="258" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="258" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A258" s="29"/>
       <c r="D258" s="1"/>
       <c r="Q258" s="31"/>
@@ -17331,7 +17340,7 @@
       <c r="AT258" s="32"/>
       <c r="BJ258" s="33"/>
     </row>
-    <row r="259" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="259" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A259" s="29"/>
       <c r="D259" s="1"/>
       <c r="Q259" s="31"/>
@@ -17353,7 +17362,7 @@
       <c r="AT259" s="32"/>
       <c r="BJ259" s="33"/>
     </row>
-    <row r="260" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="260" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A260" s="29"/>
       <c r="D260" s="1"/>
       <c r="Q260" s="31"/>
@@ -17379,7 +17388,7 @@
       <c r="AT260" s="32"/>
       <c r="BJ260" s="33"/>
     </row>
-    <row r="261" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="261" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A261" s="29"/>
       <c r="D261" s="1"/>
       <c r="Q261" s="31"/>
@@ -17403,7 +17412,7 @@
       <c r="AT261" s="32"/>
       <c r="BJ261" s="33"/>
     </row>
-    <row r="262" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="262" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A262" s="29"/>
       <c r="D262" s="1"/>
       <c r="Q262" s="31"/>
@@ -17426,7 +17435,7 @@
       <c r="AT262" s="32"/>
       <c r="BJ262" s="33"/>
     </row>
-    <row r="263" spans="1:62" ht="18" customHeight="1">
+    <row r="263" spans="1:62" ht="18" customHeight="true">
       <c r="A263" s="24"/>
       <c r="B263" s="25"/>
       <c r="C263" s="25"/>
@@ -17490,7 +17499,7 @@
       <c r="BI263" s="25"/>
       <c r="BJ263" s="26"/>
     </row>
-    <row r="264" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="264" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A264" s="29"/>
       <c r="D264" s="1"/>
       <c r="Q264" s="31"/>
@@ -17528,7 +17537,7 @@
       <c r="AT264" s="32"/>
       <c r="BJ264" s="33"/>
     </row>
-    <row r="265" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="265" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A265" s="29"/>
       <c r="D265" s="1"/>
       <c r="Q265" s="31"/>
@@ -17565,7 +17574,7 @@
       <c r="AT265" s="32"/>
       <c r="BJ265" s="33"/>
     </row>
-    <row r="266" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="266" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A266" s="29"/>
       <c r="D266" s="1"/>
       <c r="Q266" s="31"/>
@@ -17598,7 +17607,7 @@
       <c r="AT266" s="32"/>
       <c r="BJ266" s="33"/>
     </row>
-    <row r="267" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="267" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A267" s="29"/>
       <c r="D267" s="1"/>
       <c r="Q267" s="31"/>
@@ -17609,7 +17618,7 @@
       <c r="AT267" s="32"/>
       <c r="BJ267" s="33"/>
     </row>
-    <row r="268" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="268" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A268" s="29"/>
       <c r="D268" s="1"/>
       <c r="Q268" s="31"/>
@@ -17634,7 +17643,7 @@
       <c r="AT268" s="32"/>
       <c r="BJ268" s="33"/>
     </row>
-    <row r="269" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="269" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A269" s="29"/>
       <c r="D269" s="1"/>
       <c r="Q269" s="31"/>
@@ -17657,7 +17666,7 @@
       <c r="AT269" s="32"/>
       <c r="BJ269" s="33"/>
     </row>
-    <row r="270" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="270" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A270" s="29"/>
       <c r="D270" s="1"/>
       <c r="Q270" s="31"/>
@@ -17679,7 +17688,7 @@
       <c r="AT270" s="32"/>
       <c r="BJ270" s="33"/>
     </row>
-    <row r="271" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="271" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A271" s="29"/>
       <c r="D271" s="1"/>
       <c r="Q271" s="31"/>
@@ -17690,7 +17699,7 @@
       <c r="AT271" s="32"/>
       <c r="BJ271" s="33"/>
     </row>
-    <row r="272" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="272" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A272" s="29"/>
       <c r="D272" s="1"/>
       <c r="Q272" s="31"/>
@@ -17715,7 +17724,7 @@
       <c r="AT272" s="32"/>
       <c r="BJ272" s="33"/>
     </row>
-    <row r="273" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="273" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A273" s="29"/>
       <c r="D273" s="1"/>
       <c r="Q273" s="31"/>
@@ -17738,7 +17747,7 @@
       <c r="AT273" s="32"/>
       <c r="BJ273" s="33"/>
     </row>
-    <row r="274" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="274" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A274" s="29"/>
       <c r="D274" s="1"/>
       <c r="Q274" s="31"/>
@@ -17760,7 +17769,7 @@
       <c r="AT274" s="32"/>
       <c r="BJ274" s="33"/>
     </row>
-    <row r="275" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="275" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A275" s="29"/>
       <c r="D275" s="1"/>
       <c r="Q275" s="31"/>
@@ -17772,7 +17781,7 @@
       <c r="AT275" s="32"/>
       <c r="BJ275" s="33"/>
     </row>
-    <row r="276" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="276" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A276" s="29"/>
       <c r="D276" s="1"/>
       <c r="Q276" s="31"/>
@@ -17798,7 +17807,7 @@
       <c r="AT276" s="32"/>
       <c r="BJ276" s="33"/>
     </row>
-    <row r="277" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="277" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A277" s="29"/>
       <c r="D277" s="1"/>
       <c r="Q277" s="31"/>
@@ -17822,7 +17831,7 @@
       <c r="AT277" s="32"/>
       <c r="BJ277" s="33"/>
     </row>
-    <row r="278" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="278" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A278" s="29"/>
       <c r="D278" s="1"/>
       <c r="Q278" s="31"/>
@@ -17845,7 +17854,7 @@
       <c r="AT278" s="32"/>
       <c r="BJ278" s="33"/>
     </row>
-    <row r="279" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="279" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A279" s="29"/>
       <c r="D279" s="1"/>
       <c r="Q279" s="31"/>
@@ -17857,7 +17866,7 @@
       <c r="AT279" s="32"/>
       <c r="BJ279" s="33"/>
     </row>
-    <row r="280" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="280" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A280" s="29"/>
       <c r="D280" s="1"/>
       <c r="Q280" s="31"/>
@@ -17883,7 +17892,7 @@
       <c r="AT280" s="32"/>
       <c r="BJ280" s="33"/>
     </row>
-    <row r="281" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="281" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A281" s="29"/>
       <c r="D281" s="1"/>
       <c r="Q281" s="31"/>
@@ -17907,7 +17916,7 @@
       <c r="AT281" s="32"/>
       <c r="BJ281" s="33"/>
     </row>
-    <row r="282" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="282" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A282" s="29"/>
       <c r="D282" s="1"/>
       <c r="Q282" s="31"/>
@@ -17930,7 +17939,7 @@
       <c r="AT282" s="32"/>
       <c r="BJ282" s="33"/>
     </row>
-    <row r="283" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="283" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A283" s="29"/>
       <c r="D283" s="1"/>
       <c r="Q283" s="31"/>
@@ -17942,7 +17951,7 @@
       <c r="AT283" s="32"/>
       <c r="BJ283" s="33"/>
     </row>
-    <row r="284" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="284" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A284" s="29"/>
       <c r="D284" s="1"/>
       <c r="Q284" s="31"/>
@@ -17968,7 +17977,7 @@
       <c r="AT284" s="32"/>
       <c r="BJ284" s="33"/>
     </row>
-    <row r="285" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="285" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A285" s="29"/>
       <c r="D285" s="1"/>
       <c r="I285" s="1"/>
@@ -17994,7 +18003,7 @@
       <c r="AT285" s="32"/>
       <c r="BJ285" s="33"/>
     </row>
-    <row r="286" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="286" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A286" s="29"/>
       <c r="D286" s="1"/>
       <c r="Q286" s="31"/>
@@ -18017,7 +18026,7 @@
       <c r="AT286" s="32"/>
       <c r="BJ286" s="33"/>
     </row>
-    <row r="287" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="287" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A287" s="29"/>
       <c r="D287" s="1"/>
       <c r="Q287" s="31"/>
@@ -18029,7 +18038,7 @@
       <c r="AT287" s="32"/>
       <c r="BJ287" s="33"/>
     </row>
-    <row r="288" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="288" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A288" s="29"/>
       <c r="D288" s="1"/>
       <c r="Q288" s="31"/>
@@ -18055,7 +18064,7 @@
       <c r="AT288" s="32"/>
       <c r="BJ288" s="33"/>
     </row>
-    <row r="289" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="289" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A289" s="29"/>
       <c r="D289" s="1"/>
       <c r="I289" s="1"/>
@@ -18079,7 +18088,7 @@
       <c r="AT289" s="32"/>
       <c r="BJ289" s="33"/>
     </row>
-    <row r="290" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="290" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A290" s="29"/>
       <c r="D290" s="1"/>
       <c r="Q290" s="31"/>
@@ -18101,7 +18110,7 @@
       <c r="AT290" s="32"/>
       <c r="BJ290" s="33"/>
     </row>
-    <row r="291" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="291" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A291" s="29"/>
       <c r="D291" s="1"/>
       <c r="Q291" s="31"/>
@@ -18112,7 +18121,7 @@
       <c r="AT291" s="32"/>
       <c r="BJ291" s="33"/>
     </row>
-    <row r="292" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="292" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A292" s="29"/>
       <c r="D292" s="1"/>
       <c r="Q292" s="31"/>
@@ -18137,7 +18146,7 @@
       <c r="AT292" s="32"/>
       <c r="BJ292" s="33"/>
     </row>
-    <row r="293" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="293" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A293" s="29"/>
       <c r="D293" s="1"/>
       <c r="Q293" s="31"/>
@@ -18160,7 +18169,7 @@
       <c r="AT293" s="32"/>
       <c r="BJ293" s="33"/>
     </row>
-    <row r="294" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="294" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A294" s="29"/>
       <c r="D294" s="1"/>
       <c r="Q294" s="31"/>
@@ -18182,7 +18191,7 @@
       <c r="AT294" s="32"/>
       <c r="BJ294" s="33"/>
     </row>
-    <row r="295" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="295" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A295" s="29"/>
       <c r="D295" s="1"/>
       <c r="Q295" s="31"/>
@@ -18193,7 +18202,7 @@
       <c r="AT295" s="32"/>
       <c r="BJ295" s="33"/>
     </row>
-    <row r="296" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="296" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A296" s="29"/>
       <c r="D296" s="1"/>
       <c r="Q296" s="31"/>
@@ -18218,7 +18227,7 @@
       <c r="AT296" s="32"/>
       <c r="BJ296" s="33"/>
     </row>
-    <row r="297" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="297" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A297" s="29"/>
       <c r="D297" s="1"/>
       <c r="Q297" s="31"/>
@@ -18241,7 +18250,7 @@
       <c r="AT297" s="32"/>
       <c r="BJ297" s="33"/>
     </row>
-    <row r="298" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="298" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A298" s="29"/>
       <c r="D298" s="1"/>
       <c r="Q298" s="31"/>
@@ -18263,7 +18272,7 @@
       <c r="AT298" s="32"/>
       <c r="BJ298" s="33"/>
     </row>
-    <row r="299" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="299" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A299" s="29"/>
       <c r="D299" s="1"/>
       <c r="Q299" s="31"/>
@@ -18273,7 +18282,7 @@
       <c r="AT299" s="32"/>
       <c r="BJ299" s="33"/>
     </row>
-    <row r="300" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="300" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A300" s="29"/>
       <c r="D300" s="1"/>
       <c r="Q300" s="31"/>
@@ -18311,7 +18320,7 @@
       <c r="AT300" s="32"/>
       <c r="BJ300" s="33"/>
     </row>
-    <row r="301" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="301" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A301" s="29"/>
       <c r="D301" s="1"/>
       <c r="Q301" s="31"/>
@@ -18348,7 +18357,7 @@
       <c r="AT301" s="32"/>
       <c r="BJ301" s="33"/>
     </row>
-    <row r="302" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="302" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A302" s="29"/>
       <c r="D302" s="1"/>
       <c r="Q302" s="31"/>
@@ -18380,7 +18389,7 @@
       <c r="AT302" s="32"/>
       <c r="BJ302" s="33"/>
     </row>
-    <row r="303" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="303" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A303" s="29"/>
       <c r="D303" s="1"/>
       <c r="Q303" s="31"/>
@@ -18390,7 +18399,7 @@
       <c r="AT303" s="32"/>
       <c r="BJ303" s="33"/>
     </row>
-    <row r="304" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="304" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A304" s="29"/>
       <c r="D304" s="1"/>
       <c r="Q304" s="31"/>
@@ -18428,7 +18437,7 @@
       <c r="AT304" s="32"/>
       <c r="BJ304" s="33"/>
     </row>
-    <row r="305" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="305" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A305" s="29"/>
       <c r="D305" s="1"/>
       <c r="Q305" s="31"/>
@@ -18465,7 +18474,7 @@
       <c r="AT305" s="32"/>
       <c r="BJ305" s="33"/>
     </row>
-    <row r="306" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="306" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A306" s="29"/>
       <c r="D306" s="1"/>
       <c r="Q306" s="31"/>
@@ -18497,7 +18506,7 @@
       <c r="AT306" s="32"/>
       <c r="BJ306" s="33"/>
     </row>
-    <row r="307" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="307" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A307" s="38"/>
       <c r="B307" s="39"/>
       <c r="C307" s="39"/>
@@ -18561,7 +18570,7 @@
       <c r="BI307" s="39"/>
       <c r="BJ307" s="40"/>
     </row>
-    <row r="308" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="308" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A308" s="29"/>
       <c r="D308" s="1"/>
       <c r="Q308" s="31"/>
@@ -18599,7 +18608,7 @@
       <c r="AT308" s="32"/>
       <c r="BJ308" s="33"/>
     </row>
-    <row r="309" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="309" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A309" s="29"/>
       <c r="D309" s="1"/>
       <c r="I309" s="1"/>
@@ -18634,7 +18643,7 @@
       <c r="AT309" s="32"/>
       <c r="BJ309" s="33"/>
     </row>
-    <row r="310" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="310" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A310" s="29"/>
       <c r="D310" s="1"/>
       <c r="Q310" s="31"/>
@@ -18668,7 +18677,7 @@
       <c r="AT310" s="32"/>
       <c r="BJ310" s="33"/>
     </row>
-    <row r="311" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="311" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A311" s="29"/>
       <c r="D311" s="1"/>
       <c r="Q311" s="31"/>
@@ -18679,7 +18688,7 @@
       <c r="AT311" s="32"/>
       <c r="BJ311" s="33"/>
     </row>
-    <row r="312" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="312" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A312" s="29"/>
       <c r="D312" s="1"/>
       <c r="Q312" s="31"/>
@@ -18705,7 +18714,7 @@
       <c r="AT312" s="32"/>
       <c r="BJ312" s="33"/>
     </row>
-    <row r="313" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="313" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A313" s="29"/>
       <c r="D313" s="1"/>
       <c r="I313" s="1"/>
@@ -18729,7 +18738,7 @@
       <c r="AT313" s="32"/>
       <c r="BJ313" s="33"/>
     </row>
-    <row r="314" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="314" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A314" s="29"/>
       <c r="D314" s="1"/>
       <c r="Q314" s="31"/>
@@ -18751,7 +18760,7 @@
       <c r="AT314" s="32"/>
       <c r="BJ314" s="33"/>
     </row>
-    <row r="315" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="315" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A315" s="29"/>
       <c r="D315" s="1"/>
       <c r="Q315" s="31"/>
@@ -18762,7 +18771,7 @@
       <c r="AT315" s="32"/>
       <c r="BJ315" s="33"/>
     </row>
-    <row r="316" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="316" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A316" s="29"/>
       <c r="D316" s="1"/>
       <c r="Q316" s="31"/>
@@ -18788,7 +18797,7 @@
       <c r="AT316" s="32"/>
       <c r="BJ316" s="33"/>
     </row>
-    <row r="317" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="317" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A317" s="29"/>
       <c r="D317" s="1"/>
       <c r="Q317" s="31"/>
@@ -18811,7 +18820,7 @@
       <c r="AT317" s="32"/>
       <c r="BJ317" s="33"/>
     </row>
-    <row r="318" spans="1:62" ht="18" customHeight="1">
+    <row r="318" spans="1:62" ht="18" customHeight="true">
       <c r="A318" s="22"/>
       <c r="Q318" s="31"/>
       <c r="R318" s="29"/>
@@ -18844,7 +18853,7 @@
       <c r="AT318" s="32"/>
       <c r="BJ318" s="23"/>
     </row>
-    <row r="319" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="319" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A319" s="29"/>
       <c r="D319" s="1"/>
       <c r="Q319" s="31"/>
@@ -18856,7 +18865,7 @@
       <c r="AT319" s="32"/>
       <c r="BJ319" s="33"/>
     </row>
-    <row r="320" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="320" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A320" s="29"/>
       <c r="D320" s="1"/>
       <c r="Q320" s="31"/>
@@ -18882,7 +18891,7 @@
       <c r="AT320" s="32"/>
       <c r="BJ320" s="33"/>
     </row>
-    <row r="321" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="321" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A321" s="29"/>
       <c r="D321" s="1"/>
       <c r="Q321" s="31"/>
@@ -18906,7 +18915,7 @@
       <c r="AT321" s="32"/>
       <c r="BJ321" s="33"/>
     </row>
-    <row r="322" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="322" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A322" s="29"/>
       <c r="D322" s="1"/>
       <c r="Q322" s="31"/>
@@ -18929,7 +18938,7 @@
       <c r="AT322" s="32"/>
       <c r="BJ322" s="33"/>
     </row>
-    <row r="323" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="323" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A323" s="29"/>
       <c r="D323" s="1"/>
       <c r="Q323" s="31"/>
@@ -18941,7 +18950,7 @@
       <c r="AT323" s="32"/>
       <c r="BJ323" s="33"/>
     </row>
-    <row r="324" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="324" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A324" s="29"/>
       <c r="D324" s="1"/>
       <c r="Q324" s="31"/>
@@ -18967,7 +18976,7 @@
       <c r="AT324" s="32"/>
       <c r="BJ324" s="33"/>
     </row>
-    <row r="325" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="325" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A325" s="29"/>
       <c r="D325" s="1"/>
       <c r="Q325" s="31"/>
@@ -18991,7 +19000,7 @@
       <c r="AT325" s="32"/>
       <c r="BJ325" s="33"/>
     </row>
-    <row r="326" spans="1:62" s="30" customFormat="1" ht="20.25" customHeight="1">
+    <row r="326" spans="1:62" s="30" customFormat="true" ht="20.25" customHeight="true">
       <c r="A326" s="29"/>
       <c r="D326" s="1"/>
       <c r="Q326" s="31"/>
@@ -19014,7 +19023,7 @@
       <c r="AT326" s="32"/>
       <c r="BJ326" s="33"/>
     </row>
-    <row r="327" spans="1:62" ht="18" customHeight="1">
+    <row r="327" spans="1:62" ht="18" customHeight="true">
       <c r="A327" s="22"/>
       <c r="Q327" s="31"/>
       <c r="R327" s="29"/>
@@ -19022,7 +19031,7 @@
       <c r="AF327" s="31"/>
       <c r="BJ327" s="23"/>
     </row>
-    <row r="328" spans="1:62" ht="18" customHeight="1">
+    <row r="328" spans="1:62" ht="18" customHeight="true">
       <c r="A328" s="22"/>
       <c r="Q328" s="31"/>
       <c r="R328" s="29"/>
@@ -19062,7 +19071,7 @@
       <c r="AR328" s="37"/>
       <c r="BJ328" s="23"/>
     </row>
-    <row r="329" spans="1:62" ht="18" customHeight="1">
+    <row r="329" spans="1:62" ht="18" customHeight="true">
       <c r="A329" s="22"/>
       <c r="Q329" s="31"/>
       <c r="R329" s="29"/>
@@ -19098,7 +19107,7 @@
       <c r="AR329" s="86"/>
       <c r="BJ329" s="23"/>
     </row>
-    <row r="330" spans="1:62" ht="18" customHeight="1">
+    <row r="330" spans="1:62" ht="18" customHeight="true">
       <c r="A330" s="22"/>
       <c r="Q330" s="31"/>
       <c r="R330" s="35"/>
@@ -19130,11 +19139,11 @@
       <c r="AR330" s="89"/>
       <c r="BJ330" s="23"/>
     </row>
-    <row r="331" spans="1:62" ht="18" customHeight="1">
+    <row r="331" spans="1:62" ht="18" customHeight="true">
       <c r="A331" s="22"/>
       <c r="BJ331" s="23"/>
     </row>
-    <row r="332" spans="1:62" ht="18" customHeight="1">
+    <row r="332" spans="1:62" ht="18" customHeight="true">
       <c r="A332" s="24"/>
       <c r="B332" s="25"/>
       <c r="C332" s="25"/>
@@ -19198,188 +19207,188 @@
       <c r="BI332" s="25"/>
       <c r="BJ332" s="26"/>
     </row>
-    <row r="333" spans="1:62" ht="18" customHeight="1"/>
-    <row r="334" spans="1:62" ht="18" customHeight="1"/>
-    <row r="335" spans="1:62" ht="18" customHeight="1"/>
-    <row r="336" spans="1:62" ht="18" customHeight="1"/>
-    <row r="337" ht="18" customHeight="1"/>
-    <row r="338" ht="18" customHeight="1"/>
-    <row r="339" ht="18" customHeight="1"/>
-    <row r="340" ht="18" customHeight="1"/>
-    <row r="341" ht="18" customHeight="1"/>
-    <row r="342" ht="18" customHeight="1"/>
-    <row r="343" ht="18" customHeight="1"/>
-    <row r="344" ht="18" customHeight="1"/>
-    <row r="345" ht="18" customHeight="1"/>
-    <row r="346" ht="18" customHeight="1"/>
-    <row r="347" ht="18" customHeight="1"/>
-    <row r="348" ht="18" customHeight="1"/>
-    <row r="349" ht="18" customHeight="1"/>
-    <row r="350" ht="18" customHeight="1"/>
-    <row r="351" ht="18" customHeight="1"/>
-    <row r="352" ht="18" customHeight="1"/>
-    <row r="353" ht="18" customHeight="1"/>
-    <row r="354" ht="18" customHeight="1"/>
-    <row r="355" ht="18" customHeight="1"/>
-    <row r="356" ht="18" customHeight="1"/>
-    <row r="357" ht="18" customHeight="1"/>
-    <row r="358" ht="18" customHeight="1"/>
-    <row r="359" ht="18" customHeight="1"/>
-    <row r="360" ht="18" customHeight="1"/>
-    <row r="361" ht="18" customHeight="1"/>
-    <row r="362" ht="18" customHeight="1"/>
-    <row r="363" ht="18" customHeight="1"/>
-    <row r="364" ht="18" customHeight="1"/>
-    <row r="365" ht="18" customHeight="1"/>
-    <row r="366" ht="18" customHeight="1"/>
-    <row r="367" ht="18" customHeight="1"/>
-    <row r="368" ht="18" customHeight="1"/>
-    <row r="369" ht="18" customHeight="1"/>
-    <row r="370" ht="18" customHeight="1"/>
-    <row r="371" ht="18" customHeight="1"/>
-    <row r="372" ht="18" customHeight="1"/>
-    <row r="373" ht="18" customHeight="1"/>
-    <row r="374" ht="18" customHeight="1"/>
-    <row r="375" ht="18" customHeight="1"/>
-    <row r="376" ht="18" customHeight="1"/>
-    <row r="377" ht="18" customHeight="1"/>
-    <row r="378" ht="18" customHeight="1"/>
-    <row r="379" ht="18" customHeight="1"/>
-    <row r="380" ht="18" customHeight="1"/>
-    <row r="381" ht="18" customHeight="1"/>
-    <row r="382" ht="18" customHeight="1"/>
-    <row r="383" ht="18" customHeight="1"/>
-    <row r="384" ht="18" customHeight="1"/>
-    <row r="385" ht="18" customHeight="1"/>
-    <row r="386" ht="18" customHeight="1"/>
-    <row r="387" ht="22.35" customHeight="1"/>
-    <row r="388" ht="18" customHeight="1"/>
-    <row r="389" ht="18" customHeight="1"/>
-    <row r="390" ht="18" customHeight="1"/>
-    <row r="391" ht="18" customHeight="1"/>
-    <row r="392" ht="18" customHeight="1"/>
-    <row r="393" ht="18" customHeight="1"/>
-    <row r="394" ht="18" customHeight="1"/>
-    <row r="395" ht="18" customHeight="1"/>
-    <row r="396" ht="18" customHeight="1"/>
-    <row r="397" ht="18" customHeight="1"/>
-    <row r="398" ht="18" customHeight="1"/>
-    <row r="399" ht="18" customHeight="1"/>
-    <row r="400" ht="18" customHeight="1"/>
-    <row r="401" ht="18" customHeight="1"/>
-    <row r="402" ht="18" customHeight="1"/>
-    <row r="403" ht="18" customHeight="1"/>
-    <row r="404" ht="18" customHeight="1"/>
-    <row r="405" ht="18" customHeight="1"/>
-    <row r="406" ht="18" customHeight="1"/>
-    <row r="407" ht="18" customHeight="1"/>
-    <row r="408" ht="18" customHeight="1"/>
-    <row r="409" ht="18" customHeight="1"/>
-    <row r="410" ht="18" customHeight="1"/>
-    <row r="411" ht="18" customHeight="1"/>
-    <row r="412" ht="18" customHeight="1"/>
-    <row r="413" ht="18" customHeight="1"/>
-    <row r="414" ht="18" customHeight="1"/>
-    <row r="415" ht="18" customHeight="1"/>
-    <row r="416" ht="18" customHeight="1"/>
-    <row r="417" ht="18" customHeight="1"/>
-    <row r="418" ht="18" customHeight="1"/>
-    <row r="419" ht="18" customHeight="1"/>
-    <row r="420" ht="18" customHeight="1"/>
-    <row r="421" ht="18" customHeight="1"/>
-    <row r="422" ht="18" customHeight="1"/>
-    <row r="423" ht="18" customHeight="1"/>
-    <row r="424" ht="18" customHeight="1"/>
-    <row r="425" ht="18" customHeight="1"/>
-    <row r="426" ht="18" customHeight="1"/>
-    <row r="427" ht="18" customHeight="1"/>
-    <row r="428" ht="18" customHeight="1"/>
-    <row r="429" ht="18" customHeight="1"/>
-    <row r="430" ht="18" customHeight="1"/>
-    <row r="431" ht="18" customHeight="1"/>
-    <row r="432" ht="18" customHeight="1"/>
-    <row r="433" ht="18" customHeight="1"/>
-    <row r="434" ht="18" customHeight="1"/>
-    <row r="435" ht="18" customHeight="1"/>
-    <row r="436" ht="18" customHeight="1"/>
-    <row r="437" ht="18" customHeight="1"/>
-    <row r="438" ht="18" customHeight="1"/>
-    <row r="439" ht="18" customHeight="1"/>
-    <row r="440" ht="18" customHeight="1"/>
-    <row r="441" ht="18" customHeight="1"/>
-    <row r="442" ht="18" customHeight="1"/>
-    <row r="443" ht="18" customHeight="1"/>
-    <row r="444" ht="18" customHeight="1"/>
-    <row r="445" ht="18" customHeight="1"/>
-    <row r="446" ht="18" customHeight="1"/>
-    <row r="447" ht="18" customHeight="1"/>
-    <row r="448" ht="18" customHeight="1"/>
-    <row r="449" ht="18" customHeight="1"/>
-    <row r="450" ht="18" customHeight="1"/>
-    <row r="451" ht="18" customHeight="1"/>
-    <row r="452" ht="18" customHeight="1"/>
-    <row r="453" ht="18" customHeight="1"/>
-    <row r="454" ht="18" customHeight="1"/>
-    <row r="455" ht="18" customHeight="1"/>
-    <row r="456" ht="18" customHeight="1"/>
-    <row r="457" ht="18" customHeight="1"/>
-    <row r="458" ht="18" customHeight="1"/>
-    <row r="459" ht="18" customHeight="1"/>
-    <row r="460" ht="18" customHeight="1"/>
-    <row r="461" ht="18" customHeight="1"/>
-    <row r="462" ht="18" customHeight="1"/>
-    <row r="463" ht="18" customHeight="1"/>
-    <row r="464" ht="18" customHeight="1"/>
-    <row r="465" ht="18" customHeight="1"/>
-    <row r="466" ht="18" customHeight="1"/>
-    <row r="467" ht="18" customHeight="1"/>
-    <row r="468" ht="18" customHeight="1"/>
-    <row r="469" ht="18" customHeight="1"/>
-    <row r="470" ht="18" customHeight="1"/>
-    <row r="471" ht="18" customHeight="1"/>
-    <row r="472" ht="18" customHeight="1"/>
-    <row r="473" ht="18" customHeight="1"/>
-    <row r="474" ht="18" customHeight="1"/>
-    <row r="475" ht="18" customHeight="1"/>
-    <row r="476" ht="18" customHeight="1"/>
-    <row r="477" ht="18" customHeight="1"/>
-    <row r="478" ht="18" customHeight="1"/>
-    <row r="479" ht="18" customHeight="1"/>
-    <row r="480" ht="18" customHeight="1"/>
-    <row r="481" ht="18" customHeight="1"/>
-    <row r="482" ht="18" customHeight="1"/>
-    <row r="483" ht="18" customHeight="1"/>
-    <row r="484" ht="18" customHeight="1"/>
-    <row r="485" ht="18" customHeight="1"/>
-    <row r="486" ht="18" customHeight="1"/>
-    <row r="487" ht="18" customHeight="1"/>
-    <row r="488" ht="18" customHeight="1"/>
-    <row r="489" ht="18" customHeight="1"/>
-    <row r="490" ht="18" customHeight="1"/>
-    <row r="491" ht="18" customHeight="1"/>
-    <row r="492" ht="18" customHeight="1"/>
-    <row r="493" ht="18" customHeight="1"/>
-    <row r="494" ht="18" customHeight="1"/>
-    <row r="495" ht="18" customHeight="1"/>
-    <row r="496" ht="18" customHeight="1"/>
-    <row r="497" ht="18" customHeight="1"/>
-    <row r="498" ht="18" customHeight="1"/>
-    <row r="499" ht="18" customHeight="1"/>
-    <row r="500" ht="18" customHeight="1"/>
-    <row r="501" ht="18" customHeight="1"/>
-    <row r="502" ht="18" customHeight="1"/>
-    <row r="503" ht="18" customHeight="1"/>
-    <row r="504" ht="18" customHeight="1"/>
-    <row r="505" ht="18" customHeight="1"/>
-    <row r="506" ht="18" customHeight="1"/>
-    <row r="507" ht="18" customHeight="1"/>
-    <row r="508" ht="18" customHeight="1"/>
-    <row r="509" ht="18" customHeight="1"/>
-    <row r="510" ht="18" customHeight="1"/>
-    <row r="511" ht="18" customHeight="1"/>
-    <row r="512" ht="18" customHeight="1"/>
-    <row r="513" ht="18" customHeight="1"/>
-    <row r="514" ht="18" customHeight="1"/>
+    <row r="333" spans="1:62" ht="18" customHeight="true"/>
+    <row r="334" spans="1:62" ht="18" customHeight="true"/>
+    <row r="335" spans="1:62" ht="18" customHeight="true"/>
+    <row r="336" spans="1:62" ht="18" customHeight="true"/>
+    <row r="337" ht="18" customHeight="true"/>
+    <row r="338" ht="18" customHeight="true"/>
+    <row r="339" ht="18" customHeight="true"/>
+    <row r="340" ht="18" customHeight="true"/>
+    <row r="341" ht="18" customHeight="true"/>
+    <row r="342" ht="18" customHeight="true"/>
+    <row r="343" ht="18" customHeight="true"/>
+    <row r="344" ht="18" customHeight="true"/>
+    <row r="345" ht="18" customHeight="true"/>
+    <row r="346" ht="18" customHeight="true"/>
+    <row r="347" ht="18" customHeight="true"/>
+    <row r="348" ht="18" customHeight="true"/>
+    <row r="349" ht="18" customHeight="true"/>
+    <row r="350" ht="18" customHeight="true"/>
+    <row r="351" ht="18" customHeight="true"/>
+    <row r="352" ht="18" customHeight="true"/>
+    <row r="353" ht="18" customHeight="true"/>
+    <row r="354" ht="18" customHeight="true"/>
+    <row r="355" ht="18" customHeight="true"/>
+    <row r="356" ht="18" customHeight="true"/>
+    <row r="357" ht="18" customHeight="true"/>
+    <row r="358" ht="18" customHeight="true"/>
+    <row r="359" ht="18" customHeight="true"/>
+    <row r="360" ht="18" customHeight="true"/>
+    <row r="361" ht="18" customHeight="true"/>
+    <row r="362" ht="18" customHeight="true"/>
+    <row r="363" ht="18" customHeight="true"/>
+    <row r="364" ht="18" customHeight="true"/>
+    <row r="365" ht="18" customHeight="true"/>
+    <row r="366" ht="18" customHeight="true"/>
+    <row r="367" ht="18" customHeight="true"/>
+    <row r="368" ht="18" customHeight="true"/>
+    <row r="369" ht="18" customHeight="true"/>
+    <row r="370" ht="18" customHeight="true"/>
+    <row r="371" ht="18" customHeight="true"/>
+    <row r="372" ht="18" customHeight="true"/>
+    <row r="373" ht="18" customHeight="true"/>
+    <row r="374" ht="18" customHeight="true"/>
+    <row r="375" ht="18" customHeight="true"/>
+    <row r="376" ht="18" customHeight="true"/>
+    <row r="377" ht="18" customHeight="true"/>
+    <row r="378" ht="18" customHeight="true"/>
+    <row r="379" ht="18" customHeight="true"/>
+    <row r="380" ht="18" customHeight="true"/>
+    <row r="381" ht="18" customHeight="true"/>
+    <row r="382" ht="18" customHeight="true"/>
+    <row r="383" ht="18" customHeight="true"/>
+    <row r="384" ht="18" customHeight="true"/>
+    <row r="385" ht="18" customHeight="true"/>
+    <row r="386" ht="18" customHeight="true"/>
+    <row r="387" ht="22.35" customHeight="true"/>
+    <row r="388" ht="18" customHeight="true"/>
+    <row r="389" ht="18" customHeight="true"/>
+    <row r="390" ht="18" customHeight="true"/>
+    <row r="391" ht="18" customHeight="true"/>
+    <row r="392" ht="18" customHeight="true"/>
+    <row r="393" ht="18" customHeight="true"/>
+    <row r="394" ht="18" customHeight="true"/>
+    <row r="395" ht="18" customHeight="true"/>
+    <row r="396" ht="18" customHeight="true"/>
+    <row r="397" ht="18" customHeight="true"/>
+    <row r="398" ht="18" customHeight="true"/>
+    <row r="399" ht="18" customHeight="true"/>
+    <row r="400" ht="18" customHeight="true"/>
+    <row r="401" ht="18" customHeight="true"/>
+    <row r="402" ht="18" customHeight="true"/>
+    <row r="403" ht="18" customHeight="true"/>
+    <row r="404" ht="18" customHeight="true"/>
+    <row r="405" ht="18" customHeight="true"/>
+    <row r="406" ht="18" customHeight="true"/>
+    <row r="407" ht="18" customHeight="true"/>
+    <row r="408" ht="18" customHeight="true"/>
+    <row r="409" ht="18" customHeight="true"/>
+    <row r="410" ht="18" customHeight="true"/>
+    <row r="411" ht="18" customHeight="true"/>
+    <row r="412" ht="18" customHeight="true"/>
+    <row r="413" ht="18" customHeight="true"/>
+    <row r="414" ht="18" customHeight="true"/>
+    <row r="415" ht="18" customHeight="true"/>
+    <row r="416" ht="18" customHeight="true"/>
+    <row r="417" ht="18" customHeight="true"/>
+    <row r="418" ht="18" customHeight="true"/>
+    <row r="419" ht="18" customHeight="true"/>
+    <row r="420" ht="18" customHeight="true"/>
+    <row r="421" ht="18" customHeight="true"/>
+    <row r="422" ht="18" customHeight="true"/>
+    <row r="423" ht="18" customHeight="true"/>
+    <row r="424" ht="18" customHeight="true"/>
+    <row r="425" ht="18" customHeight="true"/>
+    <row r="426" ht="18" customHeight="true"/>
+    <row r="427" ht="18" customHeight="true"/>
+    <row r="428" ht="18" customHeight="true"/>
+    <row r="429" ht="18" customHeight="true"/>
+    <row r="430" ht="18" customHeight="true"/>
+    <row r="431" ht="18" customHeight="true"/>
+    <row r="432" ht="18" customHeight="true"/>
+    <row r="433" ht="18" customHeight="true"/>
+    <row r="434" ht="18" customHeight="true"/>
+    <row r="435" ht="18" customHeight="true"/>
+    <row r="436" ht="18" customHeight="true"/>
+    <row r="437" ht="18" customHeight="true"/>
+    <row r="438" ht="18" customHeight="true"/>
+    <row r="439" ht="18" customHeight="true"/>
+    <row r="440" ht="18" customHeight="true"/>
+    <row r="441" ht="18" customHeight="true"/>
+    <row r="442" ht="18" customHeight="true"/>
+    <row r="443" ht="18" customHeight="true"/>
+    <row r="444" ht="18" customHeight="true"/>
+    <row r="445" ht="18" customHeight="true"/>
+    <row r="446" ht="18" customHeight="true"/>
+    <row r="447" ht="18" customHeight="true"/>
+    <row r="448" ht="18" customHeight="true"/>
+    <row r="449" ht="18" customHeight="true"/>
+    <row r="450" ht="18" customHeight="true"/>
+    <row r="451" ht="18" customHeight="true"/>
+    <row r="452" ht="18" customHeight="true"/>
+    <row r="453" ht="18" customHeight="true"/>
+    <row r="454" ht="18" customHeight="true"/>
+    <row r="455" ht="18" customHeight="true"/>
+    <row r="456" ht="18" customHeight="true"/>
+    <row r="457" ht="18" customHeight="true"/>
+    <row r="458" ht="18" customHeight="true"/>
+    <row r="459" ht="18" customHeight="true"/>
+    <row r="460" ht="18" customHeight="true"/>
+    <row r="461" ht="18" customHeight="true"/>
+    <row r="462" ht="18" customHeight="true"/>
+    <row r="463" ht="18" customHeight="true"/>
+    <row r="464" ht="18" customHeight="true"/>
+    <row r="465" ht="18" customHeight="true"/>
+    <row r="466" ht="18" customHeight="true"/>
+    <row r="467" ht="18" customHeight="true"/>
+    <row r="468" ht="18" customHeight="true"/>
+    <row r="469" ht="18" customHeight="true"/>
+    <row r="470" ht="18" customHeight="true"/>
+    <row r="471" ht="18" customHeight="true"/>
+    <row r="472" ht="18" customHeight="true"/>
+    <row r="473" ht="18" customHeight="true"/>
+    <row r="474" ht="18" customHeight="true"/>
+    <row r="475" ht="18" customHeight="true"/>
+    <row r="476" ht="18" customHeight="true"/>
+    <row r="477" ht="18" customHeight="true"/>
+    <row r="478" ht="18" customHeight="true"/>
+    <row r="479" ht="18" customHeight="true"/>
+    <row r="480" ht="18" customHeight="true"/>
+    <row r="481" ht="18" customHeight="true"/>
+    <row r="482" ht="18" customHeight="true"/>
+    <row r="483" ht="18" customHeight="true"/>
+    <row r="484" ht="18" customHeight="true"/>
+    <row r="485" ht="18" customHeight="true"/>
+    <row r="486" ht="18" customHeight="true"/>
+    <row r="487" ht="18" customHeight="true"/>
+    <row r="488" ht="18" customHeight="true"/>
+    <row r="489" ht="18" customHeight="true"/>
+    <row r="490" ht="18" customHeight="true"/>
+    <row r="491" ht="18" customHeight="true"/>
+    <row r="492" ht="18" customHeight="true"/>
+    <row r="493" ht="18" customHeight="true"/>
+    <row r="494" ht="18" customHeight="true"/>
+    <row r="495" ht="18" customHeight="true"/>
+    <row r="496" ht="18" customHeight="true"/>
+    <row r="497" ht="18" customHeight="true"/>
+    <row r="498" ht="18" customHeight="true"/>
+    <row r="499" ht="18" customHeight="true"/>
+    <row r="500" ht="18" customHeight="true"/>
+    <row r="501" ht="18" customHeight="true"/>
+    <row r="502" ht="18" customHeight="true"/>
+    <row r="503" ht="18" customHeight="true"/>
+    <row r="504" ht="18" customHeight="true"/>
+    <row r="505" ht="18" customHeight="true"/>
+    <row r="506" ht="18" customHeight="true"/>
+    <row r="507" ht="18" customHeight="true"/>
+    <row r="508" ht="18" customHeight="true"/>
+    <row r="509" ht="18" customHeight="true"/>
+    <row r="510" ht="18" customHeight="true"/>
+    <row r="511" ht="18" customHeight="true"/>
+    <row r="512" ht="18" customHeight="true"/>
+    <row r="513" ht="18" customHeight="true"/>
+    <row r="514" ht="18" customHeight="true"/>
   </sheetData>
   <mergeCells count="113">
     <mergeCell ref="T329:AC330"/>
@@ -19497,19 +19506,19 @@
     <mergeCell ref="AI29:AR30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.70866141732283472" bottom="0.39370078740157483" header="0.9055118110236221" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7086614173228347" right="0.3937007874015748" top="0.7086614173228347" bottom="0.3937007874015748" header="0.9055118110236221" footer="0.2755905511811024"/>
+  <pageSetup fitToHeight="0" r:id="rId1" orientation="portrait" paperSize="9" scale="71" useFirstPageNumber="true"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;R&amp;P   </oddHeader>
+    <oddHeader>&amp;R&amp;P   </oddHeader>
   </headerFooter>
   <rowBreaks count="7" manualBreakCount="7">
-    <brk id="55" max="61" man="1"/>
-    <brk id="87" max="61" man="1"/>
-    <brk id="135" max="61" man="1"/>
-    <brk id="179" max="61" man="1"/>
-    <brk id="219" max="61" man="1"/>
-    <brk id="263" max="61" man="1"/>
-    <brk id="307" max="61" man="1"/>
+    <brk id="55" max="61" man="true"/>
+    <brk id="87" max="61" man="true"/>
+    <brk id="135" max="61" man="true"/>
+    <brk id="179" max="61" man="true"/>
+    <brk id="219" max="61" man="true"/>
+    <brk id="263" max="61" man="true"/>
+    <brk id="307" max="61" man="true"/>
   </rowBreaks>
 </worksheet>
 </file>
